--- a/tmp_output/docked_raw/docked_raw_May.xlsx
+++ b/tmp_output/docked_raw/docked_raw_May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>員編</t>
   </si>
@@ -48,36 +48,12 @@
   </si>
   <si>
     <t>HOUR</t>
-  </si>
-  <si>
-    <t>INTWK0002204280424</t>
-  </si>
-  <si>
-    <t>INTWK0002204280423</t>
-  </si>
-  <si>
-    <t>INTWK0002204280426</t>
-  </si>
-  <si>
-    <t>INTWK0002204280425</t>
-  </si>
-  <si>
-    <t>收下</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -130,12 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,122 +446,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>126159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>9311493003579</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2">
-        <v>44683.59988425926</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>126159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>6006822000536</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44683.59988425926</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>126159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>6006822000529</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2">
-        <v>44683.59988425926</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>126159</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>9311493002503</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>48</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44683.59988425926</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp_output/docked_raw/docked_raw_May.xlsx
+++ b/tmp_output/docked_raw/docked_raw_May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>員編</t>
   </si>
@@ -48,12 +48,36 @@
   </si>
   <si>
     <t>HOUR</t>
+  </si>
+  <si>
+    <t>INTWK0002204280424</t>
+  </si>
+  <si>
+    <t>INTWK0002204280423</t>
+  </si>
+  <si>
+    <t>INTWK0002204280426</t>
+  </si>
+  <si>
+    <t>INTWK0002204280425</t>
+  </si>
+  <si>
+    <t>收下</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -106,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,6 +471,122 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>126159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>9311493003579</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44683.59988425926</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>126159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>6006822000536</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44683.59988425926</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>126159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>6006822000529</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44683.59988425926</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>126159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>9311493002503</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44683.59988425926</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp_output/docked_raw/docked_raw_May.xlsx
+++ b/tmp_output/docked_raw/docked_raw_May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="276">
   <si>
     <t>員編</t>
   </si>
@@ -48,12 +48,810 @@
   </si>
   <si>
     <t>HOUR</t>
+  </si>
+  <si>
+    <t>INTWK0002205040361</t>
+  </si>
+  <si>
+    <t>INTWK0002205040360</t>
+  </si>
+  <si>
+    <t>INTWK0002205050238</t>
+  </si>
+  <si>
+    <t>INTWK0002205050245</t>
+  </si>
+  <si>
+    <t>INTWK0002205050235</t>
+  </si>
+  <si>
+    <t>INTWK0002205050234</t>
+  </si>
+  <si>
+    <t>INTWK0002205050240</t>
+  </si>
+  <si>
+    <t>INTWK0002205050236</t>
+  </si>
+  <si>
+    <t>INTWK0002205050244</t>
+  </si>
+  <si>
+    <t>INTWK0002205050243</t>
+  </si>
+  <si>
+    <t>INTWK0002205050242</t>
+  </si>
+  <si>
+    <t>INTWK0002205050241</t>
+  </si>
+  <si>
+    <t>INTWK0002205050239</t>
+  </si>
+  <si>
+    <t>INTWK0002205050237</t>
+  </si>
+  <si>
+    <t>INTWK0002205030431</t>
+  </si>
+  <si>
+    <t>INTWK0002205030426</t>
+  </si>
+  <si>
+    <t>INTWK0002205030399</t>
+  </si>
+  <si>
+    <t>INTWK0002205030425</t>
+  </si>
+  <si>
+    <t>INTWK0002205030429</t>
+  </si>
+  <si>
+    <t>INTWK0002205030422</t>
+  </si>
+  <si>
+    <t>INTWK0002205040127</t>
+  </si>
+  <si>
+    <t>INTWK0002205030421</t>
+  </si>
+  <si>
+    <t>INTWK0002205030423</t>
+  </si>
+  <si>
+    <t>INTWK0002205030424</t>
+  </si>
+  <si>
+    <t>INTWK0002205040126</t>
+  </si>
+  <si>
+    <t>INTWK0002205030430</t>
+  </si>
+  <si>
+    <t>INTWK0002205030428</t>
+  </si>
+  <si>
+    <t>INTWK0002205030427</t>
+  </si>
+  <si>
+    <t>INTWK0002205030400</t>
+  </si>
+  <si>
+    <t>INTWK0002205060250</t>
+  </si>
+  <si>
+    <t>INTWK0002205060253</t>
+  </si>
+  <si>
+    <t>INTWK0002205060249</t>
+  </si>
+  <si>
+    <t>INTWK0002205060259</t>
+  </si>
+  <si>
+    <t>INTWK0002205060255</t>
+  </si>
+  <si>
+    <t>INTWK0002205060248</t>
+  </si>
+  <si>
+    <t>INTWK0002205060257</t>
+  </si>
+  <si>
+    <t>INTWK0002205060260</t>
+  </si>
+  <si>
+    <t>INTWK0002205060252</t>
+  </si>
+  <si>
+    <t>INTWK0002205060261</t>
+  </si>
+  <si>
+    <t>INTWK0002205060258</t>
+  </si>
+  <si>
+    <t>INTWK0002205060256</t>
+  </si>
+  <si>
+    <t>INTWK0002205060254</t>
+  </si>
+  <si>
+    <t>INTWK0002205060251</t>
+  </si>
+  <si>
+    <t>INTWK0002205060505</t>
+  </si>
+  <si>
+    <t>INTWK0002205050764</t>
+  </si>
+  <si>
+    <t>INTWK0002205050763</t>
+  </si>
+  <si>
+    <t>INTWK0002205050765</t>
+  </si>
+  <si>
+    <t>INTWK0002205050761</t>
+  </si>
+  <si>
+    <t>INTWK0002205050762</t>
+  </si>
+  <si>
+    <t>INTWK0002205050807</t>
+  </si>
+  <si>
+    <t>INTWK0002205050757</t>
+  </si>
+  <si>
+    <t>INTWK0002205050753</t>
+  </si>
+  <si>
+    <t>INTWK0002205050925</t>
+  </si>
+  <si>
+    <t>INTWK0002205050755</t>
+  </si>
+  <si>
+    <t>INTWK0002205050756</t>
+  </si>
+  <si>
+    <t>INTWK0002205050754</t>
+  </si>
+  <si>
+    <t>INTWK0002205030189</t>
+  </si>
+  <si>
+    <t>INTWK0002205030188</t>
+  </si>
+  <si>
+    <t>INTWK0002205050848</t>
+  </si>
+  <si>
+    <t>INTWK0002205050847</t>
+  </si>
+  <si>
+    <t>INTWK0002205050849</t>
+  </si>
+  <si>
+    <t>INTWK0002205050740</t>
+  </si>
+  <si>
+    <t>INTWK0002205050751</t>
+  </si>
+  <si>
+    <t>INTWK0002205050752</t>
+  </si>
+  <si>
+    <t>INTWK0002205050739</t>
+  </si>
+  <si>
+    <t>INTWK0002205050738</t>
+  </si>
+  <si>
+    <t>INTWK0002205050627</t>
+  </si>
+  <si>
+    <t>INTWK0002205050599</t>
+  </si>
+  <si>
+    <t>INTWK0002205050634</t>
+  </si>
+  <si>
+    <t>INTWK0002205050626</t>
+  </si>
+  <si>
+    <t>INTWK0002205050633</t>
+  </si>
+  <si>
+    <t>INTWK0002205050600</t>
+  </si>
+  <si>
+    <t>INTWK0002205050621</t>
+  </si>
+  <si>
+    <t>INTWK0002205050632</t>
+  </si>
+  <si>
+    <t>INTWK0002205050622</t>
+  </si>
+  <si>
+    <t>INTWK0002205050631</t>
+  </si>
+  <si>
+    <t>INTWK0002205050625</t>
+  </si>
+  <si>
+    <t>INTWK0002205050628</t>
+  </si>
+  <si>
+    <t>INTWK0002205050623</t>
+  </si>
+  <si>
+    <t>INTWK0002205050611</t>
+  </si>
+  <si>
+    <t>INTWK0002205050629</t>
+  </si>
+  <si>
+    <t>INTWK0002205050624</t>
+  </si>
+  <si>
+    <t>INTWK0002205050630</t>
+  </si>
+  <si>
+    <t>INTWK0002205060188</t>
+  </si>
+  <si>
+    <t>INTWK0002205040367</t>
+  </si>
+  <si>
+    <t>INTWK0002205040531</t>
+  </si>
+  <si>
+    <t>INTWK0002205040382</t>
+  </si>
+  <si>
+    <t>INTWK0002205040381</t>
+  </si>
+  <si>
+    <t>INTWK0002205040532</t>
+  </si>
+  <si>
+    <t>INTWK0002205040369</t>
+  </si>
+  <si>
+    <t>INTWK0002205040368</t>
+  </si>
+  <si>
+    <t>INTWK0002205040370</t>
+  </si>
+  <si>
+    <t>INTWK0002205040383</t>
+  </si>
+  <si>
+    <t>INTWK0002205050552</t>
+  </si>
+  <si>
+    <t>INTWK0002205050459</t>
+  </si>
+  <si>
+    <t>INTWK0002205050458</t>
+  </si>
+  <si>
+    <t>INTWK0002205050551</t>
+  </si>
+  <si>
+    <t>INTWK0002205050460</t>
+  </si>
+  <si>
+    <t>INTWK0002205050023</t>
+  </si>
+  <si>
+    <t>INTWK0002205050021</t>
+  </si>
+  <si>
+    <t>INTWK0002205050022</t>
+  </si>
+  <si>
+    <t>INTWK0002205060014</t>
+  </si>
+  <si>
+    <t>INTWK0002205060013</t>
+  </si>
+  <si>
+    <t>INTWK0002205060016</t>
+  </si>
+  <si>
+    <t>INTWK0002205060011</t>
+  </si>
+  <si>
+    <t>INTWK0002205060015</t>
+  </si>
+  <si>
+    <t>INTWK0002205060012</t>
+  </si>
+  <si>
+    <t>INTWK0002204280225</t>
+  </si>
+  <si>
+    <t>INTWK0002204280222</t>
+  </si>
+  <si>
+    <t>INTWK0002204280223</t>
+  </si>
+  <si>
+    <t>INTWK0002204280224</t>
+  </si>
+  <si>
+    <t>INTWK0002205040151</t>
+  </si>
+  <si>
+    <t>INTWK0002205040077</t>
+  </si>
+  <si>
+    <t>INTWK0002205040080</t>
+  </si>
+  <si>
+    <t>INTWK0002205050824</t>
+  </si>
+  <si>
+    <t>INTWK0002205050825</t>
+  </si>
+  <si>
+    <t>INTWK0002205050823</t>
+  </si>
+  <si>
+    <t>INTWK0002205050826</t>
+  </si>
+  <si>
+    <t>INTWK0002205040078</t>
+  </si>
+  <si>
+    <t>INTWK0002205040079</t>
+  </si>
+  <si>
+    <t>INTWK0002205030288</t>
+  </si>
+  <si>
+    <t>INTWK0002205030292</t>
+  </si>
+  <si>
+    <t>INTWK0002205030306</t>
+  </si>
+  <si>
+    <t>INTWK0002205030273</t>
+  </si>
+  <si>
+    <t>INTWK0002205030263</t>
+  </si>
+  <si>
+    <t>INTWK0002205030269</t>
+  </si>
+  <si>
+    <t>INTWK0002205030274</t>
+  </si>
+  <si>
+    <t>INTWK0002205030267</t>
+  </si>
+  <si>
+    <t>INTWK0002205030286</t>
+  </si>
+  <si>
+    <t>INTWK0002205030268</t>
+  </si>
+  <si>
+    <t>INTWK0002205030277</t>
+  </si>
+  <si>
+    <t>INTWK0002205030272</t>
+  </si>
+  <si>
+    <t>INTWK0002205030301</t>
+  </si>
+  <si>
+    <t>INTWK0002205030264</t>
+  </si>
+  <si>
+    <t>INTWK0002205030276</t>
+  </si>
+  <si>
+    <t>INTWK0002205030293</t>
+  </si>
+  <si>
+    <t>INTWK0002205030275</t>
+  </si>
+  <si>
+    <t>INTWK0002205030262</t>
+  </si>
+  <si>
+    <t>INTWK0002205030294</t>
+  </si>
+  <si>
+    <t>INTWK0002205030305</t>
+  </si>
+  <si>
+    <t>INTWK0002205030308</t>
+  </si>
+  <si>
+    <t>INTWK0002205030279</t>
+  </si>
+  <si>
+    <t>INTWK0002205030297</t>
+  </si>
+  <si>
+    <t>INTWK0002205030278</t>
+  </si>
+  <si>
+    <t>INTWK0002205030291</t>
+  </si>
+  <si>
+    <t>INTWK0002205030295</t>
+  </si>
+  <si>
+    <t>INTWK0002205030271</t>
+  </si>
+  <si>
+    <t>INTWK0002205030296</t>
+  </si>
+  <si>
+    <t>INTWK0002205030265</t>
+  </si>
+  <si>
+    <t>INTWK0002205030304</t>
+  </si>
+  <si>
+    <t>INTWK0002205030270</t>
+  </si>
+  <si>
+    <t>INTWK0002205030289</t>
+  </si>
+  <si>
+    <t>INTWK0002205030290</t>
+  </si>
+  <si>
+    <t>INTWK0002205030281</t>
+  </si>
+  <si>
+    <t>INTWK0002205030283</t>
+  </si>
+  <si>
+    <t>INTWK0002205030266</t>
+  </si>
+  <si>
+    <t>INTWK0002205030282</t>
+  </si>
+  <si>
+    <t>INTWK0002205030307</t>
+  </si>
+  <si>
+    <t>INTWK0002205030285</t>
+  </si>
+  <si>
+    <t>INTWK0002205030284</t>
+  </si>
+  <si>
+    <t>INTWK0002205030303</t>
+  </si>
+  <si>
+    <t>INTWK0002205030287</t>
+  </si>
+  <si>
+    <t>INTWK0002205030302</t>
+  </si>
+  <si>
+    <t>INTWK0002205030300</t>
+  </si>
+  <si>
+    <t>INTWK0002205030280</t>
+  </si>
+  <si>
+    <t>INTWK0002205030298</t>
+  </si>
+  <si>
+    <t>INTWK0002205030299</t>
+  </si>
+  <si>
+    <t>INTWK0002205060360</t>
+  </si>
+  <si>
+    <t>INTWK0002205060354</t>
+  </si>
+  <si>
+    <t>INTWK0002205060353</t>
+  </si>
+  <si>
+    <t>INTWK0002205060352</t>
+  </si>
+  <si>
+    <t>INTWK0002205060357</t>
+  </si>
+  <si>
+    <t>INTWK0002205060355</t>
+  </si>
+  <si>
+    <t>INTWK0002205060356</t>
+  </si>
+  <si>
+    <t>INTWK0002205060358</t>
+  </si>
+  <si>
+    <t>INTWK0002205050906</t>
+  </si>
+  <si>
+    <t>INTWK0002205050905</t>
+  </si>
+  <si>
+    <t>INTWK0002205050041</t>
+  </si>
+  <si>
+    <t>INTWK0002205050031</t>
+  </si>
+  <si>
+    <t>INTWK0002205050055</t>
+  </si>
+  <si>
+    <t>INTWK0002205050050</t>
+  </si>
+  <si>
+    <t>INTWK0002205050046</t>
+  </si>
+  <si>
+    <t>INTWK0002205050033</t>
+  </si>
+  <si>
+    <t>INTWK0002205050035</t>
+  </si>
+  <si>
+    <t>INTWK0002205050044</t>
+  </si>
+  <si>
+    <t>INTWK0002205050043</t>
+  </si>
+  <si>
+    <t>INTWK0002205050051</t>
+  </si>
+  <si>
+    <t>INTWK0002205050036</t>
+  </si>
+  <si>
+    <t>INTWK0002205050042</t>
+  </si>
+  <si>
+    <t>INTWK0002205050049</t>
+  </si>
+  <si>
+    <t>INTWK0002205050038</t>
+  </si>
+  <si>
+    <t>INTWK0002205050037</t>
+  </si>
+  <si>
+    <t>INTWK0002205050056</t>
+  </si>
+  <si>
+    <t>INTWK0002205050053</t>
+  </si>
+  <si>
+    <t>INTWK0002205050047</t>
+  </si>
+  <si>
+    <t>INTWK0002205050034</t>
+  </si>
+  <si>
+    <t>INTWK0002205050057</t>
+  </si>
+  <si>
+    <t>INTWK0002205050058</t>
+  </si>
+  <si>
+    <t>INTWK0002205050059</t>
+  </si>
+  <si>
+    <t>INTWK0002205050032</t>
+  </si>
+  <si>
+    <t>INTWK0002205050052</t>
+  </si>
+  <si>
+    <t>INTWK0002205050040</t>
+  </si>
+  <si>
+    <t>INTWK0002205050048</t>
+  </si>
+  <si>
+    <t>INTWK0002205050045</t>
+  </si>
+  <si>
+    <t>INTWK0002205050039</t>
+  </si>
+  <si>
+    <t>INTWK0002205050540</t>
+  </si>
+  <si>
+    <t>INTWK0002205050535</t>
+  </si>
+  <si>
+    <t>INTWK0002205050531</t>
+  </si>
+  <si>
+    <t>INTWK0002205050534</t>
+  </si>
+  <si>
+    <t>INTWK0002205050541</t>
+  </si>
+  <si>
+    <t>INTWK0002205050530</t>
+  </si>
+  <si>
+    <t>INTWK0002205050538</t>
+  </si>
+  <si>
+    <t>INTWK0002205050539</t>
+  </si>
+  <si>
+    <t>INTWK0002205050533</t>
+  </si>
+  <si>
+    <t>INTWK0002205050532</t>
+  </si>
+  <si>
+    <t>INTWK0002205050542</t>
+  </si>
+  <si>
+    <t>INTWK0002205050537</t>
+  </si>
+  <si>
+    <t>INTWK0002205050536</t>
+  </si>
+  <si>
+    <t>INTWK0002204280599</t>
+  </si>
+  <si>
+    <t>INTWK0002205050835</t>
+  </si>
+  <si>
+    <t>INTWK0002204250081</t>
+  </si>
+  <si>
+    <t>INTWK0002204220526</t>
+  </si>
+  <si>
+    <t>INTWK0002204260137</t>
+  </si>
+  <si>
+    <t>INTWK0002204220531</t>
+  </si>
+  <si>
+    <t>INTWK0002204220532</t>
+  </si>
+  <si>
+    <t>INTWK0002204260139</t>
+  </si>
+  <si>
+    <t>INTWK0002204260140</t>
+  </si>
+  <si>
+    <t>INTWK0002204260141</t>
+  </si>
+  <si>
+    <t>INTWK0002204260136</t>
+  </si>
+  <si>
+    <t>INTWK0002204260135</t>
+  </si>
+  <si>
+    <t>INTWK0002204260138</t>
+  </si>
+  <si>
+    <t>INTWK0002205060160</t>
+  </si>
+  <si>
+    <t>INTWK0002205060292</t>
+  </si>
+  <si>
+    <t>INTWK0002205060270</t>
+  </si>
+  <si>
+    <t>INTWK0002205060295</t>
+  </si>
+  <si>
+    <t>INTWK0002205060294</t>
+  </si>
+  <si>
+    <t>INTWK0002205060293</t>
+  </si>
+  <si>
+    <t>INTWK0002205060291</t>
+  </si>
+  <si>
+    <t>INTWK0002205060296</t>
+  </si>
+  <si>
+    <t>INTWK0002205060218</t>
+  </si>
+  <si>
+    <t>INTWK0002205060219</t>
+  </si>
+  <si>
+    <t>INTWK0002205060371</t>
+  </si>
+  <si>
+    <t>10325950348_162459377002</t>
+  </si>
+  <si>
+    <t>10325950348_172459380183</t>
+  </si>
+  <si>
+    <t>B08837F3L7</t>
+  </si>
+  <si>
+    <t>412TT89C1-WT</t>
+  </si>
+  <si>
+    <t>532AT14C4-BK</t>
+  </si>
+  <si>
+    <t>751AT15D1-PK</t>
+  </si>
+  <si>
+    <t>622YW9CD2-BK</t>
+  </si>
+  <si>
+    <t>541YW01D1-A</t>
+  </si>
+  <si>
+    <t>671AT22D0-BL</t>
+  </si>
+  <si>
+    <t>671AT22D0-GN</t>
+  </si>
+  <si>
+    <t>671AT22D0-PK</t>
+  </si>
+  <si>
+    <t>751AT15D1-GY</t>
+  </si>
+  <si>
+    <t>751AT15D1-BL</t>
+  </si>
+  <si>
+    <t>751AT15D1-SBL</t>
+  </si>
+  <si>
+    <t>CONSCI-02</t>
+  </si>
+  <si>
+    <t>入庫日期不符</t>
+  </si>
+  <si>
+    <t>少12</t>
+  </si>
+  <si>
+    <t>只到10</t>
+  </si>
+  <si>
+    <t>破損1</t>
+  </si>
+  <si>
+    <t>日期不符</t>
+  </si>
+  <si>
+    <t>收下</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -106,11 +904,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,6 +1245,7040 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>126159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>4710466105121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44690.30793981482</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>126159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>4710466105145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44690.30702546296</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>126159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>5013197196505</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44690.30770833333</v>
+      </c>
+      <c r="J4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>126159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>4711436320186</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44690.30793981482</v>
+      </c>
+      <c r="J5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>126159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>8809316338010</v>
+      </c>
+      <c r="F6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44690.30815972222</v>
+      </c>
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>126159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8809316338003</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44690.30833333333</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>126159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>8809316338027</v>
+      </c>
+      <c r="F8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44690.30844907407</v>
+      </c>
+      <c r="J8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>126159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>8809316338034</v>
+      </c>
+      <c r="F9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44690.30855324074</v>
+      </c>
+      <c r="J9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>126159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>695929044428</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44690.30875</v>
+      </c>
+      <c r="J10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>126159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>695929044091</v>
+      </c>
+      <c r="F11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44690.30886574074</v>
+      </c>
+      <c r="J11" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>126159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>695929044336</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44690.30930555556</v>
+      </c>
+      <c r="J12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>126159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>695929044329</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44690.30939814815</v>
+      </c>
+      <c r="J13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>126159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>5050838402717</v>
+      </c>
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44690.30957175926</v>
+      </c>
+      <c r="J14" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>126159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>695929025090</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44690.30993055556</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>126159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>8801051111569</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44690.344375</v>
+      </c>
+      <c r="J16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>126159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>8801051077698</v>
+      </c>
+      <c r="F17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44690.34442129629</v>
+      </c>
+      <c r="J17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>126159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>8801051044270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44690.34454861111</v>
+      </c>
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>126159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>8801051168488</v>
+      </c>
+      <c r="F19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44690.34461805555</v>
+      </c>
+      <c r="J19" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>126159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>8801051092592</v>
+      </c>
+      <c r="F20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44690.34474537037</v>
+      </c>
+      <c r="J20" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>126159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>8801051370799</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44690.34481481482</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>126159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>4893776004886</v>
+      </c>
+      <c r="F22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44690.34488425926</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>126159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>8801051168495</v>
+      </c>
+      <c r="F23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>44690.34501157407</v>
+      </c>
+      <c r="J23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>126159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>8801051018769</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>44690.34575231482</v>
+      </c>
+      <c r="J24" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>126159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>8801051110746</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44690.34581018519</v>
+      </c>
+      <c r="J25" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>126159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>8806105401719</v>
+      </c>
+      <c r="F26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>44690.34585648148</v>
+      </c>
+      <c r="J26" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>126159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>8801051250367</v>
+      </c>
+      <c r="F27" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>44690.34598379629</v>
+      </c>
+      <c r="J27" t="s">
+        <v>275</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>126159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>8801051152524</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28">
+        <v>36</v>
+      </c>
+      <c r="I28" s="2">
+        <v>44690.34609953704</v>
+      </c>
+      <c r="J28" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>126159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>8801051250350</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>44690.34619212963</v>
+      </c>
+      <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>126159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>8801051092578</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>44690.34625</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>126159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>4902881436113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2">
+        <v>44690.361875</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>126159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>4902881048651</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32">
+        <v>60</v>
+      </c>
+      <c r="I32" s="2">
+        <v>44690.36199074074</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>126159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>4717293003200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>274</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>44690.3621412037</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>126159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>4717293002852</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>274</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>44690.36224537037</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>126159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>4713145008720</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44690.36229166666</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>126159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>8801725000397</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>274</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
+        <v>44690.36256944444</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>126159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>4974819767057</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>44690.36270833333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>126159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>4713145008737</v>
+      </c>
+      <c r="F38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44690.36280092593</v>
+      </c>
+      <c r="J38" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>126159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>4970765135681</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2">
+        <v>44690.3628587963</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>126159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>4717293002838</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>44690.36295138889</v>
+      </c>
+      <c r="J40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>126159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>4902881437462</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
+      <c r="I41" s="2">
+        <v>44690.36302083333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>126159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>4710176042266</v>
+      </c>
+      <c r="F42" t="s">
+        <v>273</v>
+      </c>
+      <c r="G42" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2">
+        <v>44690.3640162037</v>
+      </c>
+      <c r="J42" t="s">
+        <v>275</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>126159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>8801204903935</v>
+      </c>
+      <c r="F43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H43">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2">
+        <v>44690.36408564815</v>
+      </c>
+      <c r="J43" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>126159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>4710176042242</v>
+      </c>
+      <c r="F44" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44690.3642824074</v>
+      </c>
+      <c r="J44" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>126159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>8809275382529</v>
+      </c>
+      <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45">
+        <v>300</v>
+      </c>
+      <c r="I45" s="2">
+        <v>44690.36670138889</v>
+      </c>
+      <c r="J45" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>126159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>4710043026665</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44690.38635416667</v>
+      </c>
+      <c r="J46" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>126159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>4710043041125</v>
+      </c>
+      <c r="F47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44690.38657407407</v>
+      </c>
+      <c r="J47" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>126159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>4710043004809</v>
+      </c>
+      <c r="F48" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>44690.38659722222</v>
+      </c>
+      <c r="J48" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>126159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>4710043026504</v>
+      </c>
+      <c r="F49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>44690.38659722222</v>
+      </c>
+      <c r="J49" t="s">
+        <v>275</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>126159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>4710043016871</v>
+      </c>
+      <c r="F50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>44690.38659722222</v>
+      </c>
+      <c r="J50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>126159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>8006290804832</v>
+      </c>
+      <c r="F51" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2">
+        <v>44690.39630787037</v>
+      </c>
+      <c r="J51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>126159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52" s="2">
+        <v>44690.40313657407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>275</v>
+      </c>
+      <c r="K52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>126159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" t="s">
+        <v>274</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2">
+        <v>44690.40325231481</v>
+      </c>
+      <c r="J53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>126159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>4710587347165</v>
+      </c>
+      <c r="F54" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54">
+        <v>200</v>
+      </c>
+      <c r="I54" s="2">
+        <v>44690.40342592593</v>
+      </c>
+      <c r="J54" t="s">
+        <v>275</v>
+      </c>
+      <c r="K54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>126159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>4710587347189</v>
+      </c>
+      <c r="F55" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2">
+        <v>44690.40371527777</v>
+      </c>
+      <c r="J55" t="s">
+        <v>275</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>126159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>4710587346434</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56" s="2">
+        <v>44690.4037962963</v>
+      </c>
+      <c r="J56" t="s">
+        <v>275</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>126159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>4710587346793</v>
+      </c>
+      <c r="F57" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57" s="2">
+        <v>44690.40439814814</v>
+      </c>
+      <c r="J57" t="s">
+        <v>275</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>126159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>4710382086375</v>
+      </c>
+      <c r="D58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" t="s">
+        <v>274</v>
+      </c>
+      <c r="I58" s="2">
+        <v>44690.40684027778</v>
+      </c>
+      <c r="J58" t="s">
+        <v>275</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>126159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>4710382086368</v>
+      </c>
+      <c r="D59" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" t="s">
+        <v>274</v>
+      </c>
+      <c r="I59" s="2">
+        <v>44690.40694444445</v>
+      </c>
+      <c r="J59" t="s">
+        <v>275</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>126159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>4710943160070</v>
+      </c>
+      <c r="F60" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60" s="2">
+        <v>44690.41445601852</v>
+      </c>
+      <c r="J60" t="s">
+        <v>275</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>126159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>4710943300414</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" t="s">
+        <v>274</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61" s="2">
+        <v>44690.41453703704</v>
+      </c>
+      <c r="J61" t="s">
+        <v>275</v>
+      </c>
+      <c r="K61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>126159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>4710943300483</v>
+      </c>
+      <c r="F62" t="s">
+        <v>273</v>
+      </c>
+      <c r="G62" t="s">
+        <v>274</v>
+      </c>
+      <c r="H62">
+        <v>12</v>
+      </c>
+      <c r="I62" s="2">
+        <v>44690.41462962963</v>
+      </c>
+      <c r="J62" t="s">
+        <v>275</v>
+      </c>
+      <c r="K62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>126159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>4562268570498</v>
+      </c>
+      <c r="F63" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2">
+        <v>44690.41569444445</v>
+      </c>
+      <c r="J63" t="s">
+        <v>275</v>
+      </c>
+      <c r="K63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>126159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64">
+        <v>4710446723536</v>
+      </c>
+      <c r="F64" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
+      <c r="I64" s="2">
+        <v>44690.41577546296</v>
+      </c>
+      <c r="J64" t="s">
+        <v>275</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>126159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65">
+        <v>4710446721662</v>
+      </c>
+      <c r="F65" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65" s="2">
+        <v>44690.41591435186</v>
+      </c>
+      <c r="J65" t="s">
+        <v>275</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>126159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>4710953640012</v>
+      </c>
+      <c r="F66" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" t="s">
+        <v>274</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66" s="2">
+        <v>44690.41601851852</v>
+      </c>
+      <c r="J66" t="s">
+        <v>275</v>
+      </c>
+      <c r="K66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>126159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67">
+        <v>4710953640029</v>
+      </c>
+      <c r="F67" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67" s="2">
+        <v>44690.41611111111</v>
+      </c>
+      <c r="J67" t="s">
+        <v>275</v>
+      </c>
+      <c r="K67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>126159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>4717044430057</v>
+      </c>
+      <c r="F68" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" t="s">
+        <v>274</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68" s="2">
+        <v>44690.4187962963</v>
+      </c>
+      <c r="J68" t="s">
+        <v>275</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>126159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>4717044700242</v>
+      </c>
+      <c r="D69" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" t="s">
+        <v>274</v>
+      </c>
+      <c r="H69">
+        <v>36</v>
+      </c>
+      <c r="I69" s="2">
+        <v>44690.41892361111</v>
+      </c>
+      <c r="J69" t="s">
+        <v>275</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>126159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>4717044200070</v>
+      </c>
+      <c r="F70" t="s">
+        <v>273</v>
+      </c>
+      <c r="G70" t="s">
+        <v>274</v>
+      </c>
+      <c r="H70">
+        <v>12</v>
+      </c>
+      <c r="I70" s="2">
+        <v>44690.42158564815</v>
+      </c>
+      <c r="J70" t="s">
+        <v>275</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>126159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>4717044989005</v>
+      </c>
+      <c r="F71" t="s">
+        <v>273</v>
+      </c>
+      <c r="G71" t="s">
+        <v>274</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71" s="2">
+        <v>44690.42165509259</v>
+      </c>
+      <c r="J71" t="s">
+        <v>275</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>126159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72">
+        <v>4717044700136</v>
+      </c>
+      <c r="F72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G72" t="s">
+        <v>274</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72" s="2">
+        <v>44690.42178240741</v>
+      </c>
+      <c r="J72" t="s">
+        <v>275</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>126159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73">
+        <v>4717044700174</v>
+      </c>
+      <c r="F73" t="s">
+        <v>273</v>
+      </c>
+      <c r="G73" t="s">
+        <v>274</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73" s="2">
+        <v>44690.42188657408</v>
+      </c>
+      <c r="J73" t="s">
+        <v>275</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>126159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
+        <v>4717044700150</v>
+      </c>
+      <c r="F74" t="s">
+        <v>273</v>
+      </c>
+      <c r="G74" t="s">
+        <v>274</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="I74" s="2">
+        <v>44690.42287037037</v>
+      </c>
+      <c r="J74" t="s">
+        <v>275</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>126159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75">
+        <v>4717044600993</v>
+      </c>
+      <c r="F75" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" t="s">
+        <v>274</v>
+      </c>
+      <c r="H75">
+        <v>24</v>
+      </c>
+      <c r="I75" s="2">
+        <v>44690.42480324074</v>
+      </c>
+      <c r="J75" t="s">
+        <v>275</v>
+      </c>
+      <c r="K75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>126159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>4717044420010</v>
+      </c>
+      <c r="F76" t="s">
+        <v>273</v>
+      </c>
+      <c r="G76" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76">
+        <v>24</v>
+      </c>
+      <c r="I76" s="2">
+        <v>44690.42489583333</v>
+      </c>
+      <c r="J76" t="s">
+        <v>275</v>
+      </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>126159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>4717044300046</v>
+      </c>
+      <c r="D77" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" t="s">
+        <v>273</v>
+      </c>
+      <c r="G77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77">
+        <v>36</v>
+      </c>
+      <c r="I77" s="2">
+        <v>44690.42497685185</v>
+      </c>
+      <c r="J77" t="s">
+        <v>275</v>
+      </c>
+      <c r="K77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>126159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78">
+        <v>4717044420058</v>
+      </c>
+      <c r="F78" t="s">
+        <v>273</v>
+      </c>
+      <c r="G78" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78">
+        <v>24</v>
+      </c>
+      <c r="I78" s="2">
+        <v>44690.42508101852</v>
+      </c>
+      <c r="J78" t="s">
+        <v>275</v>
+      </c>
+      <c r="K78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>126159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>4717044700112</v>
+      </c>
+      <c r="F79" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79" s="2">
+        <v>44690.42525462963</v>
+      </c>
+      <c r="J79" t="s">
+        <v>275</v>
+      </c>
+      <c r="K79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>126159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>4717044700259</v>
+      </c>
+      <c r="F80" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" t="s">
+        <v>274</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44690.42532407407</v>
+      </c>
+      <c r="J80" t="s">
+        <v>275</v>
+      </c>
+      <c r="K80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>126159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>4717044520130</v>
+      </c>
+      <c r="F81" t="s">
+        <v>273</v>
+      </c>
+      <c r="G81" t="s">
+        <v>274</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>44690.42538194444</v>
+      </c>
+      <c r="J81" t="s">
+        <v>275</v>
+      </c>
+      <c r="K81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>126159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>4717044700068</v>
+      </c>
+      <c r="F82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G82" t="s">
+        <v>274</v>
+      </c>
+      <c r="H82">
+        <v>12</v>
+      </c>
+      <c r="I82" s="2">
+        <v>44690.4255324074</v>
+      </c>
+      <c r="J82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>126159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83">
+        <v>4717044200087</v>
+      </c>
+      <c r="F83" t="s">
+        <v>273</v>
+      </c>
+      <c r="G83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H83">
+        <v>12</v>
+      </c>
+      <c r="I83" s="2">
+        <v>44690.42561342593</v>
+      </c>
+      <c r="J83" t="s">
+        <v>275</v>
+      </c>
+      <c r="K83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>126159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>4717044100240</v>
+      </c>
+      <c r="F84" t="s">
+        <v>273</v>
+      </c>
+      <c r="G84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="I84" s="2">
+        <v>44690.42572916667</v>
+      </c>
+      <c r="J84" t="s">
+        <v>275</v>
+      </c>
+      <c r="K84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>126159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>9310885115586</v>
+      </c>
+      <c r="F85" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H85">
+        <v>14</v>
+      </c>
+      <c r="I85" s="2">
+        <v>44690.43106481482</v>
+      </c>
+      <c r="J85" t="s">
+        <v>275</v>
+      </c>
+      <c r="K85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>126159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>3614272520684</v>
+      </c>
+      <c r="F86" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" t="s">
+        <v>274</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86" s="2">
+        <v>44690.43398148148</v>
+      </c>
+      <c r="J86" t="s">
+        <v>275</v>
+      </c>
+      <c r="K86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>126159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>7290108926781</v>
+      </c>
+      <c r="F87" t="s">
+        <v>273</v>
+      </c>
+      <c r="G87" t="s">
+        <v>274</v>
+      </c>
+      <c r="H87">
+        <v>40</v>
+      </c>
+      <c r="I87" s="2">
+        <v>44690.43407407407</v>
+      </c>
+      <c r="J87" t="s">
+        <v>275</v>
+      </c>
+      <c r="K87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>126159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>729238161825</v>
+      </c>
+      <c r="F88" t="s">
+        <v>273</v>
+      </c>
+      <c r="G88" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2">
+        <v>44690.43417824074</v>
+      </c>
+      <c r="J88" t="s">
+        <v>275</v>
+      </c>
+      <c r="K88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>126159</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
+        <v>3346130412212</v>
+      </c>
+      <c r="F89" t="s">
+        <v>273</v>
+      </c>
+      <c r="G89" t="s">
+        <v>274</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89" s="2">
+        <v>44690.43491898148</v>
+      </c>
+      <c r="J89" t="s">
+        <v>275</v>
+      </c>
+      <c r="K89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>126159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>18084977361</v>
+      </c>
+      <c r="F90" t="s">
+        <v>273</v>
+      </c>
+      <c r="G90" t="s">
+        <v>274</v>
+      </c>
+      <c r="H90">
+        <v>50</v>
+      </c>
+      <c r="I90" s="2">
+        <v>44690.43498842593</v>
+      </c>
+      <c r="J90" t="s">
+        <v>275</v>
+      </c>
+      <c r="K90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>126159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>607845058946</v>
+      </c>
+      <c r="F91" t="s">
+        <v>273</v>
+      </c>
+      <c r="G91" t="s">
+        <v>274</v>
+      </c>
+      <c r="H91">
+        <v>200</v>
+      </c>
+      <c r="I91" s="2">
+        <v>44690.43539351852</v>
+      </c>
+      <c r="J91" t="s">
+        <v>275</v>
+      </c>
+      <c r="K91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>126159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
+        <v>887167485525</v>
+      </c>
+      <c r="F92" t="s">
+        <v>273</v>
+      </c>
+      <c r="G92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H92">
+        <v>150</v>
+      </c>
+      <c r="I92" s="2">
+        <v>44690.43571759259</v>
+      </c>
+      <c r="J92" t="s">
+        <v>275</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>126159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93">
+        <v>736150000316</v>
+      </c>
+      <c r="F93" t="s">
+        <v>273</v>
+      </c>
+      <c r="G93" t="s">
+        <v>274</v>
+      </c>
+      <c r="H93">
+        <v>250</v>
+      </c>
+      <c r="I93" s="2">
+        <v>44690.43770833333</v>
+      </c>
+      <c r="J93" t="s">
+        <v>275</v>
+      </c>
+      <c r="K93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>126159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94">
+        <v>4894374486001</v>
+      </c>
+      <c r="F94" t="s">
+        <v>273</v>
+      </c>
+      <c r="G94" t="s">
+        <v>274</v>
+      </c>
+      <c r="H94">
+        <v>1200</v>
+      </c>
+      <c r="I94" s="2">
+        <v>44690.4378125</v>
+      </c>
+      <c r="J94" t="s">
+        <v>275</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>126159</v>
+      </c>
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95">
+        <v>4710623020038</v>
+      </c>
+      <c r="F95" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" t="s">
+        <v>274</v>
+      </c>
+      <c r="H95">
+        <v>144</v>
+      </c>
+      <c r="I95" s="2">
+        <v>44690.44164351852</v>
+      </c>
+      <c r="J95" t="s">
+        <v>275</v>
+      </c>
+      <c r="K95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>126159</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>4710623020120</v>
+      </c>
+      <c r="F96" t="s">
+        <v>273</v>
+      </c>
+      <c r="G96" t="s">
+        <v>274</v>
+      </c>
+      <c r="H96">
+        <v>16</v>
+      </c>
+      <c r="I96" s="2">
+        <v>44690.4418287037</v>
+      </c>
+      <c r="J96" t="s">
+        <v>275</v>
+      </c>
+      <c r="K96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>126159</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97">
+        <v>4710623020106</v>
+      </c>
+      <c r="F97" t="s">
+        <v>273</v>
+      </c>
+      <c r="G97" t="s">
+        <v>274</v>
+      </c>
+      <c r="H97">
+        <v>16</v>
+      </c>
+      <c r="I97" s="2">
+        <v>44690.44202546297</v>
+      </c>
+      <c r="J97" t="s">
+        <v>275</v>
+      </c>
+      <c r="K97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>126159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98">
+        <v>4710623020014</v>
+      </c>
+      <c r="F98" t="s">
+        <v>273</v>
+      </c>
+      <c r="G98" t="s">
+        <v>274</v>
+      </c>
+      <c r="H98">
+        <v>128</v>
+      </c>
+      <c r="I98" s="2">
+        <v>44690.44550925926</v>
+      </c>
+      <c r="J98" t="s">
+        <v>275</v>
+      </c>
+      <c r="K98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>126159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99">
+        <v>4710623020021</v>
+      </c>
+      <c r="F99" t="s">
+        <v>273</v>
+      </c>
+      <c r="G99" t="s">
+        <v>274</v>
+      </c>
+      <c r="H99">
+        <v>144</v>
+      </c>
+      <c r="I99" s="2">
+        <v>44690.44563657408</v>
+      </c>
+      <c r="J99" t="s">
+        <v>275</v>
+      </c>
+      <c r="K99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>126159</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100">
+        <v>40032400935</v>
+      </c>
+      <c r="F100" t="s">
+        <v>273</v>
+      </c>
+      <c r="G100" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100">
+        <v>96</v>
+      </c>
+      <c r="I100" s="2">
+        <v>44690.44836805556</v>
+      </c>
+      <c r="J100" t="s">
+        <v>275</v>
+      </c>
+      <c r="K100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>126159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101">
+        <v>41570130346</v>
+      </c>
+      <c r="F101" t="s">
+        <v>273</v>
+      </c>
+      <c r="G101" t="s">
+        <v>274</v>
+      </c>
+      <c r="H101">
+        <v>12</v>
+      </c>
+      <c r="I101" s="2">
+        <v>44690.44850694444</v>
+      </c>
+      <c r="J101" t="s">
+        <v>275</v>
+      </c>
+      <c r="K101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>126159</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102">
+        <v>41570055120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>273</v>
+      </c>
+      <c r="G102" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102">
+        <v>12</v>
+      </c>
+      <c r="I102" s="2">
+        <v>44690.44866898148</v>
+      </c>
+      <c r="J102" t="s">
+        <v>275</v>
+      </c>
+      <c r="K102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>126159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103">
+        <v>8004395111763</v>
+      </c>
+      <c r="F103" t="s">
+        <v>273</v>
+      </c>
+      <c r="G103" t="s">
+        <v>274</v>
+      </c>
+      <c r="H103">
+        <v>12</v>
+      </c>
+      <c r="I103" s="2">
+        <v>44690.45027777777</v>
+      </c>
+      <c r="J103" t="s">
+        <v>275</v>
+      </c>
+      <c r="K103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>126159</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104">
+        <v>9415991240204</v>
+      </c>
+      <c r="F104" t="s">
+        <v>273</v>
+      </c>
+      <c r="G104" t="s">
+        <v>274</v>
+      </c>
+      <c r="H104">
+        <v>48</v>
+      </c>
+      <c r="I104" s="2">
+        <v>44690.45065972222</v>
+      </c>
+      <c r="J104" t="s">
+        <v>275</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>126159</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105">
+        <v>9415991240211</v>
+      </c>
+      <c r="F105" t="s">
+        <v>273</v>
+      </c>
+      <c r="G105" t="s">
+        <v>274</v>
+      </c>
+      <c r="H105">
+        <v>96</v>
+      </c>
+      <c r="I105" s="2">
+        <v>44690.45118055555</v>
+      </c>
+      <c r="J105" t="s">
+        <v>275</v>
+      </c>
+      <c r="K105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>126159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106">
+        <v>9415991240136</v>
+      </c>
+      <c r="F106" t="s">
+        <v>273</v>
+      </c>
+      <c r="G106" t="s">
+        <v>274</v>
+      </c>
+      <c r="H106">
+        <v>96</v>
+      </c>
+      <c r="I106" s="2">
+        <v>44690.45170138889</v>
+      </c>
+      <c r="J106" t="s">
+        <v>275</v>
+      </c>
+      <c r="K106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>126159</v>
+      </c>
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107">
+        <v>9415991240273</v>
+      </c>
+      <c r="F107" t="s">
+        <v>273</v>
+      </c>
+      <c r="G107" t="s">
+        <v>274</v>
+      </c>
+      <c r="H107">
+        <v>288</v>
+      </c>
+      <c r="I107" s="2">
+        <v>44690.45244212963</v>
+      </c>
+      <c r="J107" t="s">
+        <v>275</v>
+      </c>
+      <c r="K107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>126159</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108">
+        <v>9415991240143</v>
+      </c>
+      <c r="F108" t="s">
+        <v>273</v>
+      </c>
+      <c r="G108" t="s">
+        <v>274</v>
+      </c>
+      <c r="H108">
+        <v>96</v>
+      </c>
+      <c r="I108" s="2">
+        <v>44690.45358796296</v>
+      </c>
+      <c r="J108" t="s">
+        <v>275</v>
+      </c>
+      <c r="K108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>126159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" t="s">
+        <v>273</v>
+      </c>
+      <c r="G109" t="s">
+        <v>274</v>
+      </c>
+      <c r="I109" s="2">
+        <v>44690.45827546297</v>
+      </c>
+      <c r="J109" t="s">
+        <v>275</v>
+      </c>
+      <c r="K109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>126159</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" t="s">
+        <v>273</v>
+      </c>
+      <c r="G110" t="s">
+        <v>274</v>
+      </c>
+      <c r="I110" s="2">
+        <v>44690.45866898148</v>
+      </c>
+      <c r="J110" t="s">
+        <v>275</v>
+      </c>
+      <c r="K110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>126159</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111" t="s">
+        <v>273</v>
+      </c>
+      <c r="G111" t="s">
+        <v>274</v>
+      </c>
+      <c r="I111" s="2">
+        <v>44690.45881944444</v>
+      </c>
+      <c r="J111" t="s">
+        <v>275</v>
+      </c>
+      <c r="K111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>126159</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" t="s">
+        <v>273</v>
+      </c>
+      <c r="G112" t="s">
+        <v>274</v>
+      </c>
+      <c r="I112" s="2">
+        <v>44690.45888888889</v>
+      </c>
+      <c r="J112" t="s">
+        <v>275</v>
+      </c>
+      <c r="K112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>126159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113">
+        <v>4713410991795</v>
+      </c>
+      <c r="F113" t="s">
+        <v>273</v>
+      </c>
+      <c r="G113" t="s">
+        <v>274</v>
+      </c>
+      <c r="H113">
+        <v>12</v>
+      </c>
+      <c r="I113" s="2">
+        <v>44690.45901620371</v>
+      </c>
+      <c r="J113" t="s">
+        <v>275</v>
+      </c>
+      <c r="K113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>126159</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114">
+        <v>4713410990217</v>
+      </c>
+      <c r="F114" t="s">
+        <v>273</v>
+      </c>
+      <c r="G114" t="s">
+        <v>274</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="I114" s="2">
+        <v>44690.45915509259</v>
+      </c>
+      <c r="J114" t="s">
+        <v>275</v>
+      </c>
+      <c r="K114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>126159</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115">
+        <v>4713410994123</v>
+      </c>
+      <c r="F115" t="s">
+        <v>273</v>
+      </c>
+      <c r="G115" t="s">
+        <v>274</v>
+      </c>
+      <c r="H115">
+        <v>12</v>
+      </c>
+      <c r="I115" s="2">
+        <v>44690.45927083334</v>
+      </c>
+      <c r="J115" t="s">
+        <v>275</v>
+      </c>
+      <c r="K115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>126159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116">
+        <v>4710343100379</v>
+      </c>
+      <c r="F116" t="s">
+        <v>273</v>
+      </c>
+      <c r="G116" t="s">
+        <v>274</v>
+      </c>
+      <c r="H116">
+        <v>15</v>
+      </c>
+      <c r="I116" s="2">
+        <v>44690.4596875</v>
+      </c>
+      <c r="J116" t="s">
+        <v>275</v>
+      </c>
+      <c r="K116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>126159</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117">
+        <v>4710343100447</v>
+      </c>
+      <c r="F117" t="s">
+        <v>273</v>
+      </c>
+      <c r="G117" t="s">
+        <v>274</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117" s="2">
+        <v>44690.45993055555</v>
+      </c>
+      <c r="J117" t="s">
+        <v>275</v>
+      </c>
+      <c r="K117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>126159</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118">
+        <v>4713006370218</v>
+      </c>
+      <c r="F118" t="s">
+        <v>273</v>
+      </c>
+      <c r="G118" t="s">
+        <v>274</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118" s="2">
+        <v>44690.46011574074</v>
+      </c>
+      <c r="J118" t="s">
+        <v>275</v>
+      </c>
+      <c r="K118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>126159</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" t="s">
+        <v>255</v>
+      </c>
+      <c r="F119" t="s">
+        <v>273</v>
+      </c>
+      <c r="G119" t="s">
+        <v>274</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" s="2">
+        <v>44690.46025462963</v>
+      </c>
+      <c r="J119" t="s">
+        <v>275</v>
+      </c>
+      <c r="K119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>126159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120">
+        <v>4716872044573</v>
+      </c>
+      <c r="F120" t="s">
+        <v>273</v>
+      </c>
+      <c r="G120" t="s">
+        <v>274</v>
+      </c>
+      <c r="H120">
+        <v>24</v>
+      </c>
+      <c r="I120" s="2">
+        <v>44690.46106481482</v>
+      </c>
+      <c r="J120" t="s">
+        <v>275</v>
+      </c>
+      <c r="K120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>126159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121">
+        <v>4713410992051</v>
+      </c>
+      <c r="F121" t="s">
+        <v>273</v>
+      </c>
+      <c r="G121" t="s">
+        <v>274</v>
+      </c>
+      <c r="H121">
+        <v>24</v>
+      </c>
+      <c r="I121" s="2">
+        <v>44690.46116898148</v>
+      </c>
+      <c r="J121" t="s">
+        <v>275</v>
+      </c>
+      <c r="K121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>126159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122">
+        <v>4713205070919</v>
+      </c>
+      <c r="F122" t="s">
+        <v>273</v>
+      </c>
+      <c r="G122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H122">
+        <v>50</v>
+      </c>
+      <c r="I122" s="2">
+        <v>44690.46269675926</v>
+      </c>
+      <c r="J122" t="s">
+        <v>275</v>
+      </c>
+      <c r="K122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>126159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123">
+        <v>4934567920302</v>
+      </c>
+      <c r="F123" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" t="s">
+        <v>274</v>
+      </c>
+      <c r="H123">
+        <v>12</v>
+      </c>
+      <c r="I123" s="2">
+        <v>44690.46275462963</v>
+      </c>
+      <c r="J123" t="s">
+        <v>275</v>
+      </c>
+      <c r="K123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>126159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124">
+        <v>4713909152331</v>
+      </c>
+      <c r="F124" t="s">
+        <v>273</v>
+      </c>
+      <c r="G124" t="s">
+        <v>274</v>
+      </c>
+      <c r="H124">
+        <v>24</v>
+      </c>
+      <c r="I124" s="2">
+        <v>44690.46283564815</v>
+      </c>
+      <c r="J124" t="s">
+        <v>275</v>
+      </c>
+      <c r="K124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>126159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125">
+        <v>4711372660063</v>
+      </c>
+      <c r="F125" t="s">
+        <v>273</v>
+      </c>
+      <c r="G125" t="s">
+        <v>274</v>
+      </c>
+      <c r="H125">
+        <v>16</v>
+      </c>
+      <c r="I125" s="2">
+        <v>44690.46293981482</v>
+      </c>
+      <c r="J125" t="s">
+        <v>275</v>
+      </c>
+      <c r="K125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>126159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126">
+        <v>8992741900812</v>
+      </c>
+      <c r="F126" t="s">
+        <v>273</v>
+      </c>
+      <c r="G126" t="s">
+        <v>274</v>
+      </c>
+      <c r="H126">
+        <v>12</v>
+      </c>
+      <c r="I126" s="2">
+        <v>44690.46300925926</v>
+      </c>
+      <c r="J126" t="s">
+        <v>275</v>
+      </c>
+      <c r="K126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>126159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127">
+        <v>4800194140263</v>
+      </c>
+      <c r="F127" t="s">
+        <v>273</v>
+      </c>
+      <c r="G127" t="s">
+        <v>274</v>
+      </c>
+      <c r="H127">
+        <v>24</v>
+      </c>
+      <c r="I127" s="2">
+        <v>44690.46408564815</v>
+      </c>
+      <c r="J127" t="s">
+        <v>275</v>
+      </c>
+      <c r="K127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>126159</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128">
+        <v>4800194110983</v>
+      </c>
+      <c r="F128" t="s">
+        <v>273</v>
+      </c>
+      <c r="G128" t="s">
+        <v>274</v>
+      </c>
+      <c r="H128">
+        <v>48</v>
+      </c>
+      <c r="I128" s="2">
+        <v>44690.46418981482</v>
+      </c>
+      <c r="J128" t="s">
+        <v>275</v>
+      </c>
+      <c r="K128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>126159</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129">
+        <v>4718037138646</v>
+      </c>
+      <c r="F129" t="s">
+        <v>273</v>
+      </c>
+      <c r="G129" t="s">
+        <v>274</v>
+      </c>
+      <c r="H129">
+        <v>24</v>
+      </c>
+      <c r="I129" s="2">
+        <v>44690.46430555556</v>
+      </c>
+      <c r="J129" t="s">
+        <v>275</v>
+      </c>
+      <c r="K129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>126159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130">
+        <v>4713909147771</v>
+      </c>
+      <c r="F130" t="s">
+        <v>273</v>
+      </c>
+      <c r="G130" t="s">
+        <v>274</v>
+      </c>
+      <c r="H130">
+        <v>24</v>
+      </c>
+      <c r="I130" s="2">
+        <v>44690.4644212963</v>
+      </c>
+      <c r="J130" t="s">
+        <v>275</v>
+      </c>
+      <c r="K130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>126159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131">
+        <v>4713909147764</v>
+      </c>
+      <c r="F131" t="s">
+        <v>273</v>
+      </c>
+      <c r="G131" t="s">
+        <v>274</v>
+      </c>
+      <c r="H131">
+        <v>24</v>
+      </c>
+      <c r="I131" s="2">
+        <v>44690.4644675926</v>
+      </c>
+      <c r="J131" t="s">
+        <v>275</v>
+      </c>
+      <c r="K131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>126159</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132">
+        <v>4710953083413</v>
+      </c>
+      <c r="F132" t="s">
+        <v>273</v>
+      </c>
+      <c r="G132" t="s">
+        <v>274</v>
+      </c>
+      <c r="H132">
+        <v>20</v>
+      </c>
+      <c r="I132" s="2">
+        <v>44690.46533564815</v>
+      </c>
+      <c r="J132" t="s">
+        <v>275</v>
+      </c>
+      <c r="K132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>126159</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133">
+        <v>84501824327</v>
+      </c>
+      <c r="F133" t="s">
+        <v>273</v>
+      </c>
+      <c r="G133" t="s">
+        <v>274</v>
+      </c>
+      <c r="H133">
+        <v>20</v>
+      </c>
+      <c r="I133" s="2">
+        <v>44690.46545138889</v>
+      </c>
+      <c r="J133" t="s">
+        <v>275</v>
+      </c>
+      <c r="K133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>126159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134">
+        <v>4712277650142</v>
+      </c>
+      <c r="F134" t="s">
+        <v>273</v>
+      </c>
+      <c r="G134" t="s">
+        <v>274</v>
+      </c>
+      <c r="H134">
+        <v>20</v>
+      </c>
+      <c r="I134" s="2">
+        <v>44690.46552083334</v>
+      </c>
+      <c r="J134" t="s">
+        <v>275</v>
+      </c>
+      <c r="K134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>126159</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135">
+        <v>4710953081907</v>
+      </c>
+      <c r="F135" t="s">
+        <v>273</v>
+      </c>
+      <c r="G135" t="s">
+        <v>274</v>
+      </c>
+      <c r="H135">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2">
+        <v>44690.46564814815</v>
+      </c>
+      <c r="J135" t="s">
+        <v>275</v>
+      </c>
+      <c r="K135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>126159</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136">
+        <v>4710953081914</v>
+      </c>
+      <c r="F136" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" t="s">
+        <v>274</v>
+      </c>
+      <c r="H136">
+        <v>20</v>
+      </c>
+      <c r="I136" s="2">
+        <v>44690.46579861111</v>
+      </c>
+      <c r="J136" t="s">
+        <v>275</v>
+      </c>
+      <c r="K136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>126159</v>
+      </c>
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137">
+        <v>4710953084205</v>
+      </c>
+      <c r="F137" t="s">
+        <v>273</v>
+      </c>
+      <c r="G137" t="s">
+        <v>274</v>
+      </c>
+      <c r="H137">
+        <v>20</v>
+      </c>
+      <c r="I137" s="2">
+        <v>44690.46585648148</v>
+      </c>
+      <c r="J137" t="s">
+        <v>275</v>
+      </c>
+      <c r="K137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>126159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138">
+        <v>4713909152430</v>
+      </c>
+      <c r="F138" t="s">
+        <v>273</v>
+      </c>
+      <c r="G138" t="s">
+        <v>274</v>
+      </c>
+      <c r="H138">
+        <v>24</v>
+      </c>
+      <c r="I138" s="2">
+        <v>44690.46731481481</v>
+      </c>
+      <c r="J138" t="s">
+        <v>275</v>
+      </c>
+      <c r="K138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>126159</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139">
+        <v>4712466023122</v>
+      </c>
+      <c r="F139" t="s">
+        <v>273</v>
+      </c>
+      <c r="G139" t="s">
+        <v>274</v>
+      </c>
+      <c r="H139">
+        <v>6</v>
+      </c>
+      <c r="I139" s="2">
+        <v>44690.46695601852</v>
+      </c>
+      <c r="J139" t="s">
+        <v>275</v>
+      </c>
+      <c r="K139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>126159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140">
+        <v>4800194140669</v>
+      </c>
+      <c r="F140" t="s">
+        <v>273</v>
+      </c>
+      <c r="G140" t="s">
+        <v>274</v>
+      </c>
+      <c r="H140">
+        <v>12</v>
+      </c>
+      <c r="I140" s="2">
+        <v>44690.46703703704</v>
+      </c>
+      <c r="J140" t="s">
+        <v>275</v>
+      </c>
+      <c r="K140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>126159</v>
+      </c>
+      <c r="B141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141">
+        <v>4712893948395</v>
+      </c>
+      <c r="F141" t="s">
+        <v>273</v>
+      </c>
+      <c r="G141" t="s">
+        <v>274</v>
+      </c>
+      <c r="H141">
+        <v>6</v>
+      </c>
+      <c r="I141" s="2">
+        <v>44690.46721064814</v>
+      </c>
+      <c r="J141" t="s">
+        <v>275</v>
+      </c>
+      <c r="K141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>126159</v>
+      </c>
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142">
+        <v>4716670703900</v>
+      </c>
+      <c r="F142" t="s">
+        <v>273</v>
+      </c>
+      <c r="G142" t="s">
+        <v>274</v>
+      </c>
+      <c r="I142" s="2">
+        <v>44690.46731481481</v>
+      </c>
+      <c r="J142" t="s">
+        <v>275</v>
+      </c>
+      <c r="K142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>126159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143">
+        <v>4716670703917</v>
+      </c>
+      <c r="F143" t="s">
+        <v>273</v>
+      </c>
+      <c r="G143" t="s">
+        <v>274</v>
+      </c>
+      <c r="H143">
+        <v>20</v>
+      </c>
+      <c r="I143" s="2">
+        <v>44690.46741898148</v>
+      </c>
+      <c r="J143" t="s">
+        <v>275</v>
+      </c>
+      <c r="K143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>126159</v>
+      </c>
+      <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144">
+        <v>4713909152447</v>
+      </c>
+      <c r="F144" t="s">
+        <v>273</v>
+      </c>
+      <c r="G144" t="s">
+        <v>274</v>
+      </c>
+      <c r="H144">
+        <v>10</v>
+      </c>
+      <c r="I144" s="2">
+        <v>44690.46809027778</v>
+      </c>
+      <c r="J144" t="s">
+        <v>275</v>
+      </c>
+      <c r="K144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>126159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145">
+        <v>4717831108305</v>
+      </c>
+      <c r="F145" t="s">
+        <v>273</v>
+      </c>
+      <c r="G145" t="s">
+        <v>274</v>
+      </c>
+      <c r="H145">
+        <v>12</v>
+      </c>
+      <c r="I145" s="2">
+        <v>44690.46820601852</v>
+      </c>
+      <c r="J145" t="s">
+        <v>275</v>
+      </c>
+      <c r="K145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>126159</v>
+      </c>
+      <c r="B146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146">
+        <v>4717831108299</v>
+      </c>
+      <c r="F146" t="s">
+        <v>273</v>
+      </c>
+      <c r="G146" t="s">
+        <v>274</v>
+      </c>
+      <c r="H146">
+        <v>12</v>
+      </c>
+      <c r="I146" s="2">
+        <v>44690.46826388889</v>
+      </c>
+      <c r="J146" t="s">
+        <v>275</v>
+      </c>
+      <c r="K146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>126159</v>
+      </c>
+      <c r="B147" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147">
+        <v>4718037133580</v>
+      </c>
+      <c r="F147" t="s">
+        <v>273</v>
+      </c>
+      <c r="G147" t="s">
+        <v>274</v>
+      </c>
+      <c r="H147">
+        <v>24</v>
+      </c>
+      <c r="I147" s="2">
+        <v>44690.46839120371</v>
+      </c>
+      <c r="J147" t="s">
+        <v>275</v>
+      </c>
+      <c r="K147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>126159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148">
+        <v>4713909143728</v>
+      </c>
+      <c r="F148" t="s">
+        <v>273</v>
+      </c>
+      <c r="G148" t="s">
+        <v>274</v>
+      </c>
+      <c r="H148">
+        <v>12</v>
+      </c>
+      <c r="I148" s="2">
+        <v>44690.46847222222</v>
+      </c>
+      <c r="J148" t="s">
+        <v>275</v>
+      </c>
+      <c r="K148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>126159</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149">
+        <v>4712466023115</v>
+      </c>
+      <c r="F149" t="s">
+        <v>273</v>
+      </c>
+      <c r="G149" t="s">
+        <v>274</v>
+      </c>
+      <c r="H149">
+        <v>6</v>
+      </c>
+      <c r="I149" s="2">
+        <v>44690.46862268518</v>
+      </c>
+      <c r="J149" t="s">
+        <v>275</v>
+      </c>
+      <c r="K149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>126159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150">
+        <v>4718037134518</v>
+      </c>
+      <c r="F150" t="s">
+        <v>273</v>
+      </c>
+      <c r="G150" t="s">
+        <v>274</v>
+      </c>
+      <c r="H150">
+        <v>12</v>
+      </c>
+      <c r="I150" s="2">
+        <v>44690.46890046296</v>
+      </c>
+      <c r="J150" t="s">
+        <v>275</v>
+      </c>
+      <c r="K150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>126159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151">
+        <v>4712893948401</v>
+      </c>
+      <c r="F151" t="s">
+        <v>273</v>
+      </c>
+      <c r="G151" t="s">
+        <v>274</v>
+      </c>
+      <c r="H151">
+        <v>6</v>
+      </c>
+      <c r="I151" s="2">
+        <v>44690.46895833333</v>
+      </c>
+      <c r="J151" t="s">
+        <v>275</v>
+      </c>
+      <c r="K151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>126159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152">
+        <v>4713909152348</v>
+      </c>
+      <c r="F152" t="s">
+        <v>273</v>
+      </c>
+      <c r="G152" t="s">
+        <v>274</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
+      </c>
+      <c r="I152" s="2">
+        <v>44690.46902777778</v>
+      </c>
+      <c r="J152" t="s">
+        <v>275</v>
+      </c>
+      <c r="K152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>126159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153">
+        <v>4712466023108</v>
+      </c>
+      <c r="F153" t="s">
+        <v>273</v>
+      </c>
+      <c r="G153" t="s">
+        <v>274</v>
+      </c>
+      <c r="H153">
+        <v>12</v>
+      </c>
+      <c r="I153" s="2">
+        <v>44690.46913194445</v>
+      </c>
+      <c r="J153" t="s">
+        <v>275</v>
+      </c>
+      <c r="K153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>126159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154">
+        <v>4715082035890</v>
+      </c>
+      <c r="F154" t="s">
+        <v>273</v>
+      </c>
+      <c r="G154" t="s">
+        <v>274</v>
+      </c>
+      <c r="H154">
+        <v>12</v>
+      </c>
+      <c r="I154" s="2">
+        <v>44690.46928240741</v>
+      </c>
+      <c r="J154" t="s">
+        <v>275</v>
+      </c>
+      <c r="K154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>126159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155">
+        <v>4718037131685</v>
+      </c>
+      <c r="F155" t="s">
+        <v>273</v>
+      </c>
+      <c r="G155" t="s">
+        <v>274</v>
+      </c>
+      <c r="H155">
+        <v>12</v>
+      </c>
+      <c r="I155" s="2">
+        <v>44690.46935185185</v>
+      </c>
+      <c r="J155" t="s">
+        <v>275</v>
+      </c>
+      <c r="K155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>126159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156">
+        <v>4715082035791</v>
+      </c>
+      <c r="F156" t="s">
+        <v>273</v>
+      </c>
+      <c r="G156" t="s">
+        <v>274</v>
+      </c>
+      <c r="H156">
+        <v>12</v>
+      </c>
+      <c r="I156" s="2">
+        <v>44690.46958333333</v>
+      </c>
+      <c r="J156" t="s">
+        <v>275</v>
+      </c>
+      <c r="K156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>126159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157">
+        <v>4934567921422</v>
+      </c>
+      <c r="F157" t="s">
+        <v>273</v>
+      </c>
+      <c r="G157" t="s">
+        <v>274</v>
+      </c>
+      <c r="H157">
+        <v>6</v>
+      </c>
+      <c r="I157" s="2">
+        <v>44690.4696875</v>
+      </c>
+      <c r="J157" t="s">
+        <v>275</v>
+      </c>
+      <c r="K157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>126159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158">
+        <v>8850580200244</v>
+      </c>
+      <c r="F158" t="s">
+        <v>273</v>
+      </c>
+      <c r="G158" t="s">
+        <v>274</v>
+      </c>
+      <c r="H158">
+        <v>12</v>
+      </c>
+      <c r="I158" s="2">
+        <v>44690.46986111111</v>
+      </c>
+      <c r="J158" t="s">
+        <v>275</v>
+      </c>
+      <c r="K158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>126159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159">
+        <v>4934567924355</v>
+      </c>
+      <c r="F159" t="s">
+        <v>273</v>
+      </c>
+      <c r="G159" t="s">
+        <v>274</v>
+      </c>
+      <c r="H159">
+        <v>6</v>
+      </c>
+      <c r="I159" s="2">
+        <v>44690.46998842592</v>
+      </c>
+      <c r="J159" t="s">
+        <v>275</v>
+      </c>
+      <c r="K159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>126159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160">
+        <v>4718037134556</v>
+      </c>
+      <c r="F160" t="s">
+        <v>273</v>
+      </c>
+      <c r="G160" t="s">
+        <v>274</v>
+      </c>
+      <c r="H160">
+        <v>12</v>
+      </c>
+      <c r="I160" s="2">
+        <v>44690.47011574074</v>
+      </c>
+      <c r="J160" t="s">
+        <v>275</v>
+      </c>
+      <c r="K160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>126159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161">
+        <v>4712839895066</v>
+      </c>
+      <c r="F161" t="s">
+        <v>273</v>
+      </c>
+      <c r="G161" t="s">
+        <v>274</v>
+      </c>
+      <c r="H161">
+        <v>6</v>
+      </c>
+      <c r="I161" s="2">
+        <v>44690.47025462963</v>
+      </c>
+      <c r="J161" t="s">
+        <v>275</v>
+      </c>
+      <c r="K161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>126159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162">
+        <v>4713909144602</v>
+      </c>
+      <c r="F162" t="s">
+        <v>273</v>
+      </c>
+      <c r="G162" t="s">
+        <v>274</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+      <c r="I162" s="2">
+        <v>44690.47060185186</v>
+      </c>
+      <c r="J162" t="s">
+        <v>275</v>
+      </c>
+      <c r="K162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>126159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163">
+        <v>4713909147191</v>
+      </c>
+      <c r="F163" t="s">
+        <v>273</v>
+      </c>
+      <c r="G163" t="s">
+        <v>274</v>
+      </c>
+      <c r="H163">
+        <v>12</v>
+      </c>
+      <c r="I163" s="2">
+        <v>44690.47065972222</v>
+      </c>
+      <c r="J163" t="s">
+        <v>275</v>
+      </c>
+      <c r="K163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>126159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164">
+        <v>4713909144718</v>
+      </c>
+      <c r="F164" t="s">
+        <v>273</v>
+      </c>
+      <c r="G164" t="s">
+        <v>274</v>
+      </c>
+      <c r="H164">
+        <v>6</v>
+      </c>
+      <c r="I164" s="2">
+        <v>44690.47072916666</v>
+      </c>
+      <c r="J164" t="s">
+        <v>275</v>
+      </c>
+      <c r="K164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>126159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165">
+        <v>4716670703924</v>
+      </c>
+      <c r="F165" t="s">
+        <v>273</v>
+      </c>
+      <c r="G165" t="s">
+        <v>274</v>
+      </c>
+      <c r="H165">
+        <v>18</v>
+      </c>
+      <c r="I165" s="2">
+        <v>44690.47075231482</v>
+      </c>
+      <c r="J165" t="s">
+        <v>275</v>
+      </c>
+      <c r="K165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>126159</v>
+      </c>
+      <c r="B166" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166">
+        <v>4716670707496</v>
+      </c>
+      <c r="F166" t="s">
+        <v>273</v>
+      </c>
+      <c r="G166" t="s">
+        <v>274</v>
+      </c>
+      <c r="H166">
+        <v>10</v>
+      </c>
+      <c r="I166" s="2">
+        <v>44690.47077546296</v>
+      </c>
+      <c r="J166" t="s">
+        <v>275</v>
+      </c>
+      <c r="K166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>126159</v>
+      </c>
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167">
+        <v>4718037137625</v>
+      </c>
+      <c r="F167" t="s">
+        <v>273</v>
+      </c>
+      <c r="G167" t="s">
+        <v>274</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="I167" s="2">
+        <v>44690.47079861111</v>
+      </c>
+      <c r="J167" t="s">
+        <v>275</v>
+      </c>
+      <c r="K167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>126159</v>
+      </c>
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168">
+        <v>4712839898401</v>
+      </c>
+      <c r="F168" t="s">
+        <v>273</v>
+      </c>
+      <c r="G168" t="s">
+        <v>274</v>
+      </c>
+      <c r="H168">
+        <v>6</v>
+      </c>
+      <c r="I168" s="2">
+        <v>44690.47085648148</v>
+      </c>
+      <c r="J168" t="s">
+        <v>275</v>
+      </c>
+      <c r="K168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="F169" t="s">
+        <v>273</v>
+      </c>
+      <c r="G169" t="s">
+        <v>274</v>
+      </c>
+      <c r="H169">
+        <v>1200</v>
+      </c>
+      <c r="I169" s="2">
+        <v>44690.48248842593</v>
+      </c>
+      <c r="J169" t="s">
+        <v>275</v>
+      </c>
+      <c r="K169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>126159</v>
+      </c>
+      <c r="B170" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170">
+        <v>4713218460103</v>
+      </c>
+      <c r="F170" t="s">
+        <v>273</v>
+      </c>
+      <c r="G170" t="s">
+        <v>274</v>
+      </c>
+      <c r="H170">
+        <v>50</v>
+      </c>
+      <c r="I170" s="2">
+        <v>44690.48325231481</v>
+      </c>
+      <c r="J170" t="s">
+        <v>275</v>
+      </c>
+      <c r="K170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>126159</v>
+      </c>
+      <c r="B171" t="s">
+        <v>179</v>
+      </c>
+      <c r="C171">
+        <v>4711085936110</v>
+      </c>
+      <c r="F171" t="s">
+        <v>273</v>
+      </c>
+      <c r="G171" t="s">
+        <v>274</v>
+      </c>
+      <c r="H171">
+        <v>50</v>
+      </c>
+      <c r="I171" s="2">
+        <v>44690.48333333333</v>
+      </c>
+      <c r="J171" t="s">
+        <v>275</v>
+      </c>
+      <c r="K171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>126159</v>
+      </c>
+      <c r="B172" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172">
+        <v>4713218460141</v>
+      </c>
+      <c r="F172" t="s">
+        <v>273</v>
+      </c>
+      <c r="G172" t="s">
+        <v>274</v>
+      </c>
+      <c r="H172">
+        <v>60</v>
+      </c>
+      <c r="I172" s="2">
+        <v>44690.48351851852</v>
+      </c>
+      <c r="J172" t="s">
+        <v>275</v>
+      </c>
+      <c r="K172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>126159</v>
+      </c>
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173">
+        <v>4713218460097</v>
+      </c>
+      <c r="F173" t="s">
+        <v>273</v>
+      </c>
+      <c r="G173" t="s">
+        <v>274</v>
+      </c>
+      <c r="H173">
+        <v>70</v>
+      </c>
+      <c r="I173" s="2">
+        <v>44690.48539351852</v>
+      </c>
+      <c r="J173" t="s">
+        <v>275</v>
+      </c>
+      <c r="K173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>126159</v>
+      </c>
+      <c r="B174" t="s">
+        <v>182</v>
+      </c>
+      <c r="C174">
+        <v>4710273771878</v>
+      </c>
+      <c r="F174" t="s">
+        <v>273</v>
+      </c>
+      <c r="G174" t="s">
+        <v>274</v>
+      </c>
+      <c r="H174">
+        <v>150</v>
+      </c>
+      <c r="I174" s="2">
+        <v>44690.48758101852</v>
+      </c>
+      <c r="J174" t="s">
+        <v>275</v>
+      </c>
+      <c r="K174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>126159</v>
+      </c>
+      <c r="B175" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175">
+        <v>4711085935168</v>
+      </c>
+      <c r="F175" t="s">
+        <v>273</v>
+      </c>
+      <c r="G175" t="s">
+        <v>274</v>
+      </c>
+      <c r="I175" s="2">
+        <v>44690.57256944444</v>
+      </c>
+      <c r="J175" t="s">
+        <v>275</v>
+      </c>
+      <c r="K175">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>126159</v>
+      </c>
+      <c r="B176" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176">
+        <v>4713218460134</v>
+      </c>
+      <c r="F176" t="s">
+        <v>273</v>
+      </c>
+      <c r="G176" t="s">
+        <v>274</v>
+      </c>
+      <c r="H176">
+        <v>6</v>
+      </c>
+      <c r="I176" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J176" t="s">
+        <v>275</v>
+      </c>
+      <c r="K176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>126159</v>
+      </c>
+      <c r="B177" t="s">
+        <v>185</v>
+      </c>
+      <c r="C177">
+        <v>4711085936097</v>
+      </c>
+      <c r="D177" t="s">
+        <v>270</v>
+      </c>
+      <c r="F177" t="s">
+        <v>273</v>
+      </c>
+      <c r="G177" t="s">
+        <v>274</v>
+      </c>
+      <c r="H177">
+        <v>12</v>
+      </c>
+      <c r="I177" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J177" t="s">
+        <v>275</v>
+      </c>
+      <c r="K177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>126159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>186</v>
+      </c>
+      <c r="C178">
+        <v>4710012261080</v>
+      </c>
+      <c r="F178" t="s">
+        <v>273</v>
+      </c>
+      <c r="G178" t="s">
+        <v>274</v>
+      </c>
+      <c r="H178">
+        <v>8</v>
+      </c>
+      <c r="I178" s="2">
+        <v>44690.56222222222</v>
+      </c>
+      <c r="J178" t="s">
+        <v>275</v>
+      </c>
+      <c r="K178">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>126159</v>
+      </c>
+      <c r="B179" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179">
+        <v>4710012240085</v>
+      </c>
+      <c r="F179" t="s">
+        <v>273</v>
+      </c>
+      <c r="G179" t="s">
+        <v>274</v>
+      </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
+      <c r="I179" s="2">
+        <v>44690.56224537037</v>
+      </c>
+      <c r="J179" t="s">
+        <v>275</v>
+      </c>
+      <c r="K179">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="F180" t="s">
+        <v>273</v>
+      </c>
+      <c r="G180" t="s">
+        <v>274</v>
+      </c>
+      <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180" s="2">
+        <v>44690.56266203704</v>
+      </c>
+      <c r="J180" t="s">
+        <v>275</v>
+      </c>
+      <c r="K180">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>126159</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181">
+        <v>4972767004316</v>
+      </c>
+      <c r="F181" t="s">
+        <v>273</v>
+      </c>
+      <c r="G181" t="s">
+        <v>274</v>
+      </c>
+      <c r="I181" s="2">
+        <v>44690.56356481482</v>
+      </c>
+      <c r="J181" t="s">
+        <v>275</v>
+      </c>
+      <c r="K181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>126159</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182">
+        <v>4972767003401</v>
+      </c>
+      <c r="F182" t="s">
+        <v>273</v>
+      </c>
+      <c r="G182" t="s">
+        <v>274</v>
+      </c>
+      <c r="I182" s="2">
+        <v>44690.56631944444</v>
+      </c>
+      <c r="J182" t="s">
+        <v>275</v>
+      </c>
+      <c r="K182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>126159</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183">
+        <v>10011152219872</v>
+      </c>
+      <c r="D183" t="s">
+        <v>271</v>
+      </c>
+      <c r="F183" t="s">
+        <v>273</v>
+      </c>
+      <c r="G183" t="s">
+        <v>274</v>
+      </c>
+      <c r="I183" s="2">
+        <v>44690.56939814815</v>
+      </c>
+      <c r="J183" t="s">
+        <v>275</v>
+      </c>
+      <c r="K183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>126159</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184">
+        <v>14897878100153</v>
+      </c>
+      <c r="F184" t="s">
+        <v>273</v>
+      </c>
+      <c r="G184" t="s">
+        <v>274</v>
+      </c>
+      <c r="H184">
+        <v>12</v>
+      </c>
+      <c r="I184" s="2">
+        <v>44690.56356481482</v>
+      </c>
+      <c r="J184" t="s">
+        <v>275</v>
+      </c>
+      <c r="K184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>126159</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185">
+        <v>10011152012466</v>
+      </c>
+      <c r="D185" t="s">
+        <v>271</v>
+      </c>
+      <c r="F185" t="s">
+        <v>273</v>
+      </c>
+      <c r="G185" t="s">
+        <v>274</v>
+      </c>
+      <c r="H185">
+        <v>20</v>
+      </c>
+      <c r="I185" s="2">
+        <v>44690.56631944444</v>
+      </c>
+      <c r="J185" t="s">
+        <v>275</v>
+      </c>
+      <c r="K185">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>126159</v>
+      </c>
+      <c r="B186" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186">
+        <v>14902105231705</v>
+      </c>
+      <c r="F186" t="s">
+        <v>273</v>
+      </c>
+      <c r="G186" t="s">
+        <v>274</v>
+      </c>
+      <c r="H186">
+        <v>35</v>
+      </c>
+      <c r="I186" s="2">
+        <v>44690.56939814815</v>
+      </c>
+      <c r="J186" t="s">
+        <v>275</v>
+      </c>
+      <c r="K186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>126159</v>
+      </c>
+      <c r="B187" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187">
+        <v>4897878230037</v>
+      </c>
+      <c r="F187" t="s">
+        <v>273</v>
+      </c>
+      <c r="G187" t="s">
+        <v>274</v>
+      </c>
+      <c r="H187">
+        <v>360</v>
+      </c>
+      <c r="I187" s="2">
+        <v>44690.56988425926</v>
+      </c>
+      <c r="J187" t="s">
+        <v>275</v>
+      </c>
+      <c r="K187">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>126159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188">
+        <v>4897878140602</v>
+      </c>
+      <c r="F188" t="s">
+        <v>273</v>
+      </c>
+      <c r="G188" t="s">
+        <v>274</v>
+      </c>
+      <c r="H188">
+        <v>60</v>
+      </c>
+      <c r="I188" s="2">
+        <v>44690.57159722222</v>
+      </c>
+      <c r="J188" t="s">
+        <v>275</v>
+      </c>
+      <c r="K188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>126159</v>
+      </c>
+      <c r="B189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189">
+        <v>4897878760107</v>
+      </c>
+      <c r="F189" t="s">
+        <v>273</v>
+      </c>
+      <c r="G189" t="s">
+        <v>274</v>
+      </c>
+      <c r="H189">
+        <v>60</v>
+      </c>
+      <c r="I189" s="2">
+        <v>44690.57209490741</v>
+      </c>
+      <c r="J189" t="s">
+        <v>275</v>
+      </c>
+      <c r="K189">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>126159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190">
+        <v>4897878140039</v>
+      </c>
+      <c r="F190" t="s">
+        <v>273</v>
+      </c>
+      <c r="G190" t="s">
+        <v>274</v>
+      </c>
+      <c r="H190">
+        <v>120</v>
+      </c>
+      <c r="I190" s="2">
+        <v>44690.57255787037</v>
+      </c>
+      <c r="J190" t="s">
+        <v>275</v>
+      </c>
+      <c r="K190">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>126159</v>
+      </c>
+      <c r="B191" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191">
+        <v>4902105241103</v>
+      </c>
+      <c r="F191" t="s">
+        <v>273</v>
+      </c>
+      <c r="G191" t="s">
+        <v>274</v>
+      </c>
+      <c r="H191">
+        <v>180</v>
+      </c>
+      <c r="I191" s="2">
+        <v>44690.57506944444</v>
+      </c>
+      <c r="J191" t="s">
+        <v>275</v>
+      </c>
+      <c r="K191">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>126159</v>
+      </c>
+      <c r="B192" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192">
+        <v>4897878230020</v>
+      </c>
+      <c r="F192" t="s">
+        <v>273</v>
+      </c>
+      <c r="G192" t="s">
+        <v>274</v>
+      </c>
+      <c r="H192">
+        <v>480</v>
+      </c>
+      <c r="I192" s="2">
+        <v>44690.57548611111</v>
+      </c>
+      <c r="J192" t="s">
+        <v>275</v>
+      </c>
+      <c r="K192">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>126159</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193">
+        <v>4897878230013</v>
+      </c>
+      <c r="F193" t="s">
+        <v>273</v>
+      </c>
+      <c r="G193" t="s">
+        <v>274</v>
+      </c>
+      <c r="H193">
+        <v>480</v>
+      </c>
+      <c r="I193" s="2">
+        <v>44690.5765625</v>
+      </c>
+      <c r="J193" t="s">
+        <v>275</v>
+      </c>
+      <c r="K193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>126159</v>
+      </c>
+      <c r="B194" t="s">
+        <v>201</v>
+      </c>
+      <c r="C194">
+        <v>5060042641413</v>
+      </c>
+      <c r="F194" t="s">
+        <v>273</v>
+      </c>
+      <c r="G194" t="s">
+        <v>274</v>
+      </c>
+      <c r="H194">
+        <v>60</v>
+      </c>
+      <c r="I194" s="2">
+        <v>44690.58071759259</v>
+      </c>
+      <c r="J194" t="s">
+        <v>275</v>
+      </c>
+      <c r="K194">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>126159</v>
+      </c>
+      <c r="B195" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195">
+        <v>5060042641789</v>
+      </c>
+      <c r="F195" t="s">
+        <v>273</v>
+      </c>
+      <c r="G195" t="s">
+        <v>274</v>
+      </c>
+      <c r="H195">
+        <v>56</v>
+      </c>
+      <c r="I195" s="2">
+        <v>44690.58077546296</v>
+      </c>
+      <c r="J195" t="s">
+        <v>275</v>
+      </c>
+      <c r="K195">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>126159</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+      <c r="C196">
+        <v>4897053640569</v>
+      </c>
+      <c r="F196" t="s">
+        <v>273</v>
+      </c>
+      <c r="G196" t="s">
+        <v>274</v>
+      </c>
+      <c r="H196">
+        <v>12</v>
+      </c>
+      <c r="I196" s="2">
+        <v>44690.5809375</v>
+      </c>
+      <c r="J196" t="s">
+        <v>275</v>
+      </c>
+      <c r="K196">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>126159</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197">
+        <v>5060042641000</v>
+      </c>
+      <c r="F197" t="s">
+        <v>273</v>
+      </c>
+      <c r="G197" t="s">
+        <v>274</v>
+      </c>
+      <c r="H197">
+        <v>24</v>
+      </c>
+      <c r="I197" s="2">
+        <v>44690.58119212963</v>
+      </c>
+      <c r="J197" t="s">
+        <v>275</v>
+      </c>
+      <c r="K197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>126159</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198">
+        <v>5060042641437</v>
+      </c>
+      <c r="F198" t="s">
+        <v>273</v>
+      </c>
+      <c r="G198" t="s">
+        <v>274</v>
+      </c>
+      <c r="H198">
+        <v>24</v>
+      </c>
+      <c r="I198" s="2">
+        <v>44690.58121527778</v>
+      </c>
+      <c r="J198" t="s">
+        <v>275</v>
+      </c>
+      <c r="K198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>126159</v>
+      </c>
+      <c r="B199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199">
+        <v>4902105256107</v>
+      </c>
+      <c r="F199" t="s">
+        <v>273</v>
+      </c>
+      <c r="G199" t="s">
+        <v>274</v>
+      </c>
+      <c r="H199">
+        <v>80</v>
+      </c>
+      <c r="I199" s="2">
+        <v>44690.5815162037</v>
+      </c>
+      <c r="J199" t="s">
+        <v>275</v>
+      </c>
+      <c r="K199">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>126159</v>
+      </c>
+      <c r="B200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200">
+        <v>4897053640538</v>
+      </c>
+      <c r="F200" t="s">
+        <v>273</v>
+      </c>
+      <c r="G200" t="s">
+        <v>274</v>
+      </c>
+      <c r="H200">
+        <v>24</v>
+      </c>
+      <c r="I200" s="2">
+        <v>44690.58189814815</v>
+      </c>
+      <c r="J200" t="s">
+        <v>275</v>
+      </c>
+      <c r="K200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>126159</v>
+      </c>
+      <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201">
+        <v>11152219875</v>
+      </c>
+      <c r="F201" t="s">
+        <v>273</v>
+      </c>
+      <c r="G201" t="s">
+        <v>274</v>
+      </c>
+      <c r="H201">
+        <v>120</v>
+      </c>
+      <c r="I201" s="2">
+        <v>44690.58246527778</v>
+      </c>
+      <c r="J201" t="s">
+        <v>275</v>
+      </c>
+      <c r="K201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>126159</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202">
+        <v>4897878100156</v>
+      </c>
+      <c r="F202" t="s">
+        <v>273</v>
+      </c>
+      <c r="G202" t="s">
+        <v>274</v>
+      </c>
+      <c r="H202">
+        <v>300</v>
+      </c>
+      <c r="I202" s="2">
+        <v>44690.58293981481</v>
+      </c>
+      <c r="J202" t="s">
+        <v>275</v>
+      </c>
+      <c r="K202">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>126159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203">
+        <v>84901351020889</v>
+      </c>
+      <c r="F203" t="s">
+        <v>273</v>
+      </c>
+      <c r="G203" t="s">
+        <v>274</v>
+      </c>
+      <c r="H203">
+        <v>12</v>
+      </c>
+      <c r="I203" s="2">
+        <v>44690.58487268518</v>
+      </c>
+      <c r="J203" t="s">
+        <v>275</v>
+      </c>
+      <c r="K203">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>126159</v>
+      </c>
+      <c r="B204" t="s">
+        <v>211</v>
+      </c>
+      <c r="C204">
+        <v>84901351021114</v>
+      </c>
+      <c r="F204" t="s">
+        <v>273</v>
+      </c>
+      <c r="G204" t="s">
+        <v>274</v>
+      </c>
+      <c r="H204">
+        <v>24</v>
+      </c>
+      <c r="I204" s="2">
+        <v>44690.5850462963</v>
+      </c>
+      <c r="J204" t="s">
+        <v>275</v>
+      </c>
+      <c r="K204">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>126159</v>
+      </c>
+      <c r="B205" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205">
+        <v>4897053640521</v>
+      </c>
+      <c r="F205" t="s">
+        <v>273</v>
+      </c>
+      <c r="G205" t="s">
+        <v>274</v>
+      </c>
+      <c r="H205">
+        <v>36</v>
+      </c>
+      <c r="I205" s="2">
+        <v>44690.58512731481</v>
+      </c>
+      <c r="J205" t="s">
+        <v>275</v>
+      </c>
+      <c r="K205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>126159</v>
+      </c>
+      <c r="B206" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206">
+        <v>4897878230044</v>
+      </c>
+      <c r="F206" t="s">
+        <v>273</v>
+      </c>
+      <c r="G206" t="s">
+        <v>274</v>
+      </c>
+      <c r="H206">
+        <v>360</v>
+      </c>
+      <c r="I206" s="2">
+        <v>44690.58615740741</v>
+      </c>
+      <c r="J206" t="s">
+        <v>275</v>
+      </c>
+      <c r="K206">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>126159</v>
+      </c>
+      <c r="B207" t="s">
+        <v>214</v>
+      </c>
+      <c r="C207">
+        <v>4897878140015</v>
+      </c>
+      <c r="F207" t="s">
+        <v>273</v>
+      </c>
+      <c r="G207" t="s">
+        <v>274</v>
+      </c>
+      <c r="H207">
+        <v>180</v>
+      </c>
+      <c r="I207" s="2">
+        <v>44690.58753472222</v>
+      </c>
+      <c r="J207" t="s">
+        <v>275</v>
+      </c>
+      <c r="K207">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>126159</v>
+      </c>
+      <c r="B208" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208">
+        <v>4897878140305</v>
+      </c>
+      <c r="F208" t="s">
+        <v>273</v>
+      </c>
+      <c r="G208" t="s">
+        <v>274</v>
+      </c>
+      <c r="H208">
+        <v>90</v>
+      </c>
+      <c r="I208" s="2">
+        <v>44690.58814814815</v>
+      </c>
+      <c r="J208" t="s">
+        <v>275</v>
+      </c>
+      <c r="K208">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>126159</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209">
+        <v>8007150904891</v>
+      </c>
+      <c r="F209" t="s">
+        <v>273</v>
+      </c>
+      <c r="G209" t="s">
+        <v>274</v>
+      </c>
+      <c r="H209">
+        <v>6</v>
+      </c>
+      <c r="I209" s="2">
+        <v>44690.60061342592</v>
+      </c>
+      <c r="J209" t="s">
+        <v>275</v>
+      </c>
+      <c r="K209">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>126159</v>
+      </c>
+      <c r="B210" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210">
+        <v>8014589002036</v>
+      </c>
+      <c r="F210" t="s">
+        <v>273</v>
+      </c>
+      <c r="G210" t="s">
+        <v>274</v>
+      </c>
+      <c r="H210">
+        <v>24</v>
+      </c>
+      <c r="I210" s="2">
+        <v>44690.60072916667</v>
+      </c>
+      <c r="J210" t="s">
+        <v>275</v>
+      </c>
+      <c r="K210">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>126159</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+      <c r="C211">
+        <v>8014589002029</v>
+      </c>
+      <c r="F211" t="s">
+        <v>273</v>
+      </c>
+      <c r="G211" t="s">
+        <v>274</v>
+      </c>
+      <c r="H211">
+        <v>24</v>
+      </c>
+      <c r="I211" s="2">
+        <v>44690.60104166667</v>
+      </c>
+      <c r="J211" t="s">
+        <v>275</v>
+      </c>
+      <c r="K211">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>126159</v>
+      </c>
+      <c r="B212" t="s">
+        <v>219</v>
+      </c>
+      <c r="C212">
+        <v>8007150902095</v>
+      </c>
+      <c r="F212" t="s">
+        <v>273</v>
+      </c>
+      <c r="G212" t="s">
+        <v>274</v>
+      </c>
+      <c r="H212">
+        <v>12</v>
+      </c>
+      <c r="I212" s="2">
+        <v>44690.60116898148</v>
+      </c>
+      <c r="J212" t="s">
+        <v>275</v>
+      </c>
+      <c r="K212">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>126159</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213">
+        <v>8033993040144</v>
+      </c>
+      <c r="F213" t="s">
+        <v>273</v>
+      </c>
+      <c r="G213" t="s">
+        <v>274</v>
+      </c>
+      <c r="H213">
+        <v>12</v>
+      </c>
+      <c r="I213" s="2">
+        <v>44690.60146990741</v>
+      </c>
+      <c r="J213" t="s">
+        <v>275</v>
+      </c>
+      <c r="K213">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214">
+        <v>126159</v>
+      </c>
+      <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214">
+        <v>8007150901784</v>
+      </c>
+      <c r="F214" t="s">
+        <v>273</v>
+      </c>
+      <c r="G214" t="s">
+        <v>274</v>
+      </c>
+      <c r="H214">
+        <v>12</v>
+      </c>
+      <c r="I214" s="2">
+        <v>44690.60163194445</v>
+      </c>
+      <c r="J214" t="s">
+        <v>275</v>
+      </c>
+      <c r="K214">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215">
+        <v>126159</v>
+      </c>
+      <c r="B215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215">
+        <v>8007150902286</v>
+      </c>
+      <c r="F215" t="s">
+        <v>273</v>
+      </c>
+      <c r="G215" t="s">
+        <v>274</v>
+      </c>
+      <c r="H215">
+        <v>24</v>
+      </c>
+      <c r="I215" s="2">
+        <v>44690.60577546297</v>
+      </c>
+      <c r="J215" t="s">
+        <v>275</v>
+      </c>
+      <c r="K215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
+        <v>126159</v>
+      </c>
+      <c r="B216" t="s">
+        <v>223</v>
+      </c>
+      <c r="C216">
+        <v>8007150900398</v>
+      </c>
+      <c r="F216" t="s">
+        <v>273</v>
+      </c>
+      <c r="G216" t="s">
+        <v>274</v>
+      </c>
+      <c r="H216">
+        <v>12</v>
+      </c>
+      <c r="I216" s="2">
+        <v>44690.6058912037</v>
+      </c>
+      <c r="J216" t="s">
+        <v>275</v>
+      </c>
+      <c r="K216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217">
+        <v>126159</v>
+      </c>
+      <c r="B217" t="s">
+        <v>224</v>
+      </c>
+      <c r="C217">
+        <v>8007150907175</v>
+      </c>
+      <c r="F217" t="s">
+        <v>273</v>
+      </c>
+      <c r="G217" t="s">
+        <v>274</v>
+      </c>
+      <c r="H217">
+        <v>18</v>
+      </c>
+      <c r="I217" s="2">
+        <v>44690.60597222222</v>
+      </c>
+      <c r="J217" t="s">
+        <v>275</v>
+      </c>
+      <c r="K217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218">
+        <v>126159</v>
+      </c>
+      <c r="B218" t="s">
+        <v>225</v>
+      </c>
+      <c r="C218">
+        <v>8007150903924</v>
+      </c>
+      <c r="F218" t="s">
+        <v>273</v>
+      </c>
+      <c r="G218" t="s">
+        <v>274</v>
+      </c>
+      <c r="H218">
+        <v>18</v>
+      </c>
+      <c r="I218" s="2">
+        <v>44690.60608796297</v>
+      </c>
+      <c r="J218" t="s">
+        <v>275</v>
+      </c>
+      <c r="K218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219">
+        <v>126159</v>
+      </c>
+      <c r="B219" t="s">
+        <v>226</v>
+      </c>
+      <c r="C219">
+        <v>8004690051573</v>
+      </c>
+      <c r="F219" t="s">
+        <v>273</v>
+      </c>
+      <c r="G219" t="s">
+        <v>274</v>
+      </c>
+      <c r="H219">
+        <v>36</v>
+      </c>
+      <c r="I219" s="2">
+        <v>44690.60622685185</v>
+      </c>
+      <c r="J219" t="s">
+        <v>275</v>
+      </c>
+      <c r="K219">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220">
+        <v>126159</v>
+      </c>
+      <c r="B220" t="s">
+        <v>227</v>
+      </c>
+      <c r="C220">
+        <v>8007150905287</v>
+      </c>
+      <c r="F220" t="s">
+        <v>273</v>
+      </c>
+      <c r="G220" t="s">
+        <v>274</v>
+      </c>
+      <c r="H220">
+        <v>18</v>
+      </c>
+      <c r="I220" s="2">
+        <v>44690.60630787037</v>
+      </c>
+      <c r="J220" t="s">
+        <v>275</v>
+      </c>
+      <c r="K220">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221">
+        <v>126159</v>
+      </c>
+      <c r="B221" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221">
+        <v>8004690052044</v>
+      </c>
+      <c r="F221" t="s">
+        <v>273</v>
+      </c>
+      <c r="G221" t="s">
+        <v>274</v>
+      </c>
+      <c r="H221">
+        <v>48</v>
+      </c>
+      <c r="I221" s="2">
+        <v>44690.60739583334</v>
+      </c>
+      <c r="J221" t="s">
+        <v>275</v>
+      </c>
+      <c r="K221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222">
+        <v>126159</v>
+      </c>
+      <c r="B222" t="s">
+        <v>229</v>
+      </c>
+      <c r="C222">
+        <v>4712966430079</v>
+      </c>
+      <c r="D222" t="s">
+        <v>272</v>
+      </c>
+      <c r="F222" t="s">
+        <v>273</v>
+      </c>
+      <c r="G222" t="s">
+        <v>274</v>
+      </c>
+      <c r="I222" s="2">
+        <v>44690.60753472222</v>
+      </c>
+      <c r="J222" t="s">
+        <v>275</v>
+      </c>
+      <c r="K222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223">
+        <v>126159</v>
+      </c>
+      <c r="B223" t="s">
+        <v>230</v>
+      </c>
+      <c r="C223">
+        <v>9554100027708</v>
+      </c>
+      <c r="F223" t="s">
+        <v>273</v>
+      </c>
+      <c r="G223" t="s">
+        <v>274</v>
+      </c>
+      <c r="H223">
+        <v>12</v>
+      </c>
+      <c r="I223" s="2">
+        <v>44690.61106481482</v>
+      </c>
+      <c r="J223" t="s">
+        <v>275</v>
+      </c>
+      <c r="K223">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224">
+        <v>42437</v>
+      </c>
+      <c r="B224" t="s">
+        <v>231</v>
+      </c>
+      <c r="C224" t="s">
+        <v>256</v>
+      </c>
+      <c r="F224" t="s">
+        <v>273</v>
+      </c>
+      <c r="G224" t="s">
+        <v>274</v>
+      </c>
+      <c r="H224">
+        <v>200</v>
+      </c>
+      <c r="I224" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J224" t="s">
+        <v>275</v>
+      </c>
+      <c r="K224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225">
+        <v>42437</v>
+      </c>
+      <c r="B225" t="s">
+        <v>232</v>
+      </c>
+      <c r="C225" t="s">
+        <v>257</v>
+      </c>
+      <c r="F225" t="s">
+        <v>273</v>
+      </c>
+      <c r="G225" t="s">
+        <v>274</v>
+      </c>
+      <c r="H225">
+        <v>10</v>
+      </c>
+      <c r="I225" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J225" t="s">
+        <v>275</v>
+      </c>
+      <c r="K225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226">
+        <v>42437</v>
+      </c>
+      <c r="B226" t="s">
+        <v>233</v>
+      </c>
+      <c r="C226" t="s">
+        <v>258</v>
+      </c>
+      <c r="F226" t="s">
+        <v>273</v>
+      </c>
+      <c r="G226" t="s">
+        <v>274</v>
+      </c>
+      <c r="H226">
+        <v>20</v>
+      </c>
+      <c r="I226" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J226" t="s">
+        <v>275</v>
+      </c>
+      <c r="K226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227">
+        <v>42437</v>
+      </c>
+      <c r="B227" t="s">
+        <v>234</v>
+      </c>
+      <c r="C227" t="s">
+        <v>259</v>
+      </c>
+      <c r="F227" t="s">
+        <v>273</v>
+      </c>
+      <c r="G227" t="s">
+        <v>274</v>
+      </c>
+      <c r="H227">
+        <v>30</v>
+      </c>
+      <c r="I227" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J227" t="s">
+        <v>275</v>
+      </c>
+      <c r="K227">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228">
+        <v>42437</v>
+      </c>
+      <c r="B228" t="s">
+        <v>235</v>
+      </c>
+      <c r="C228" t="s">
+        <v>260</v>
+      </c>
+      <c r="F228" t="s">
+        <v>273</v>
+      </c>
+      <c r="G228" t="s">
+        <v>274</v>
+      </c>
+      <c r="H228">
+        <v>100</v>
+      </c>
+      <c r="I228" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J228" t="s">
+        <v>275</v>
+      </c>
+      <c r="K228">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229">
+        <v>42437</v>
+      </c>
+      <c r="B229" t="s">
+        <v>236</v>
+      </c>
+      <c r="C229" t="s">
+        <v>261</v>
+      </c>
+      <c r="F229" t="s">
+        <v>273</v>
+      </c>
+      <c r="G229" t="s">
+        <v>274</v>
+      </c>
+      <c r="H229">
+        <v>5</v>
+      </c>
+      <c r="I229" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J229" t="s">
+        <v>275</v>
+      </c>
+      <c r="K229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230">
+        <v>42437</v>
+      </c>
+      <c r="B230" t="s">
+        <v>237</v>
+      </c>
+      <c r="C230" t="s">
+        <v>262</v>
+      </c>
+      <c r="F230" t="s">
+        <v>273</v>
+      </c>
+      <c r="G230" t="s">
+        <v>274</v>
+      </c>
+      <c r="H230">
+        <v>5</v>
+      </c>
+      <c r="I230" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J230" t="s">
+        <v>275</v>
+      </c>
+      <c r="K230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231">
+        <v>42437</v>
+      </c>
+      <c r="B231" t="s">
+        <v>238</v>
+      </c>
+      <c r="C231" t="s">
+        <v>263</v>
+      </c>
+      <c r="F231" t="s">
+        <v>273</v>
+      </c>
+      <c r="G231" t="s">
+        <v>274</v>
+      </c>
+      <c r="H231">
+        <v>5</v>
+      </c>
+      <c r="I231" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J231" t="s">
+        <v>275</v>
+      </c>
+      <c r="K231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232">
+        <v>42437</v>
+      </c>
+      <c r="B232" t="s">
+        <v>239</v>
+      </c>
+      <c r="C232" t="s">
+        <v>264</v>
+      </c>
+      <c r="F232" t="s">
+        <v>273</v>
+      </c>
+      <c r="G232" t="s">
+        <v>274</v>
+      </c>
+      <c r="H232">
+        <v>20</v>
+      </c>
+      <c r="I232" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J232" t="s">
+        <v>275</v>
+      </c>
+      <c r="K232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233">
+        <v>42437</v>
+      </c>
+      <c r="B233" t="s">
+        <v>240</v>
+      </c>
+      <c r="C233" t="s">
+        <v>265</v>
+      </c>
+      <c r="F233" t="s">
+        <v>273</v>
+      </c>
+      <c r="G233" t="s">
+        <v>274</v>
+      </c>
+      <c r="H233">
+        <v>20</v>
+      </c>
+      <c r="I233" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J233" t="s">
+        <v>275</v>
+      </c>
+      <c r="K233">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234">
+        <v>42437</v>
+      </c>
+      <c r="B234" t="s">
+        <v>241</v>
+      </c>
+      <c r="C234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F234" t="s">
+        <v>273</v>
+      </c>
+      <c r="G234" t="s">
+        <v>274</v>
+      </c>
+      <c r="H234">
+        <v>20</v>
+      </c>
+      <c r="I234" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J234" t="s">
+        <v>275</v>
+      </c>
+      <c r="K234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235">
+        <v>42437</v>
+      </c>
+      <c r="B235" t="s">
+        <v>242</v>
+      </c>
+      <c r="C235">
+        <v>8006830604113</v>
+      </c>
+      <c r="F235" t="s">
+        <v>273</v>
+      </c>
+      <c r="G235" t="s">
+        <v>274</v>
+      </c>
+      <c r="H235">
+        <v>24</v>
+      </c>
+      <c r="I235" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J235" t="s">
+        <v>275</v>
+      </c>
+      <c r="K235">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236">
+        <v>42437</v>
+      </c>
+      <c r="B236" t="s">
+        <v>243</v>
+      </c>
+      <c r="C236">
+        <v>4713381243374</v>
+      </c>
+      <c r="F236" t="s">
+        <v>273</v>
+      </c>
+      <c r="G236" t="s">
+        <v>274</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J236" t="s">
+        <v>275</v>
+      </c>
+      <c r="K236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237">
+        <v>42437</v>
+      </c>
+      <c r="B237" t="s">
+        <v>244</v>
+      </c>
+      <c r="C237">
+        <v>4713381246344</v>
+      </c>
+      <c r="F237" t="s">
+        <v>273</v>
+      </c>
+      <c r="G237" t="s">
+        <v>274</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J237" t="s">
+        <v>275</v>
+      </c>
+      <c r="K237">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238">
+        <v>42437</v>
+      </c>
+      <c r="B238" t="s">
+        <v>245</v>
+      </c>
+      <c r="C238">
+        <v>4713381245149</v>
+      </c>
+      <c r="F238" t="s">
+        <v>273</v>
+      </c>
+      <c r="G238" t="s">
+        <v>274</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J238" t="s">
+        <v>275</v>
+      </c>
+      <c r="K238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239">
+        <v>42437</v>
+      </c>
+      <c r="B239" t="s">
+        <v>246</v>
+      </c>
+      <c r="C239">
+        <v>4713381246696</v>
+      </c>
+      <c r="F239" t="s">
+        <v>273</v>
+      </c>
+      <c r="G239" t="s">
+        <v>274</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J239" t="s">
+        <v>275</v>
+      </c>
+      <c r="K239">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240">
+        <v>42437</v>
+      </c>
+      <c r="B240" t="s">
+        <v>247</v>
+      </c>
+      <c r="C240">
+        <v>4713381246672</v>
+      </c>
+      <c r="F240" t="s">
+        <v>273</v>
+      </c>
+      <c r="G240" t="s">
+        <v>274</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J240" t="s">
+        <v>275</v>
+      </c>
+      <c r="K240">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241">
+        <v>42437</v>
+      </c>
+      <c r="B241" t="s">
+        <v>248</v>
+      </c>
+      <c r="C241">
+        <v>4713381247679</v>
+      </c>
+      <c r="F241" t="s">
+        <v>273</v>
+      </c>
+      <c r="G241" t="s">
+        <v>274</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J241" t="s">
+        <v>275</v>
+      </c>
+      <c r="K241">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242">
+        <v>42437</v>
+      </c>
+      <c r="B242" t="s">
+        <v>249</v>
+      </c>
+      <c r="C242">
+        <v>4713381246580</v>
+      </c>
+      <c r="F242" t="s">
+        <v>273</v>
+      </c>
+      <c r="G242" t="s">
+        <v>274</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J242" t="s">
+        <v>275</v>
+      </c>
+      <c r="K242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243">
+        <v>42437</v>
+      </c>
+      <c r="B243" t="s">
+        <v>250</v>
+      </c>
+      <c r="C243">
+        <v>9416050532117</v>
+      </c>
+      <c r="F243" t="s">
+        <v>273</v>
+      </c>
+      <c r="G243" t="s">
+        <v>274</v>
+      </c>
+      <c r="H243">
+        <v>24</v>
+      </c>
+      <c r="I243" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J243" t="s">
+        <v>275</v>
+      </c>
+      <c r="K243">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244">
+        <v>42437</v>
+      </c>
+      <c r="B244" t="s">
+        <v>251</v>
+      </c>
+      <c r="C244">
+        <v>9416050532414</v>
+      </c>
+      <c r="F244" t="s">
+        <v>273</v>
+      </c>
+      <c r="G244" t="s">
+        <v>274</v>
+      </c>
+      <c r="H244">
+        <v>24</v>
+      </c>
+      <c r="I244" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J244" t="s">
+        <v>275</v>
+      </c>
+      <c r="K244">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245">
+        <v>42437</v>
+      </c>
+      <c r="B245" t="s">
+        <v>252</v>
+      </c>
+      <c r="C245" t="s">
+        <v>267</v>
+      </c>
+      <c r="F245" t="s">
+        <v>273</v>
+      </c>
+      <c r="G245" t="s">
+        <v>274</v>
+      </c>
+      <c r="H245">
+        <v>120</v>
+      </c>
+      <c r="I245" s="2">
+        <v>44690.55769675926</v>
+      </c>
+      <c r="J245" t="s">
+        <v>275</v>
+      </c>
+      <c r="K245">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
